--- a/CastReporting.Reporting/TemplatesFiles/3- Excel-components-library.xlsx
+++ b/CastReporting.Reporting/TemplatesFiles/3- Excel-components-library.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Report Generator\SVN\ReportGenerator1.2\CastReporting.Reporting\TemplatesFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Report Generator\git\trunk\CastReporting.Reporting\TemplatesFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="5280" windowHeight="7995"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="5280" windowHeight="7995" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="1 - Information" sheetId="6" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="100">
   <si>
     <t>RepGen:TEXT;APPLICATION_NAME</t>
   </si>
@@ -323,6 +323,15 @@
   </si>
   <si>
     <t>For more information, please refer to "3- Excel-components-library-info.docx"</t>
+  </si>
+  <si>
+    <t>2.23. - Report Generator Version</t>
+  </si>
+  <si>
+    <t>* Block Name = REPGEN_VERSION</t>
+  </si>
+  <si>
+    <t>RepGen:TEXT;REPGEN_VERSION</t>
   </si>
 </sst>
 </file>
@@ -544,24 +553,24 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -938,7 +947,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:O23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
@@ -963,8 +972,8 @@
     <row r="1" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D1" s="5"/>
       <c r="E1" s="6"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
     </row>
     <row r="2" spans="2:15" ht="23.25" x14ac:dyDescent="0.25">
       <c r="B2" s="7"/>
@@ -975,16 +984,16 @@
       <c r="G2" s="15"/>
     </row>
     <row r="3" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
       <c r="D3" s="3"/>
       <c r="E3" s="9"/>
       <c r="F3" s="1"/>
       <c r="G3" s="3"/>
     </row>
     <row r="4" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
       <c r="D4" s="3"/>
       <c r="E4" s="9"/>
       <c r="F4" s="1"/>
@@ -1027,31 +1036,31 @@
       <c r="O11" s="2"/>
     </row>
     <row r="13" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C13" s="28" t="s">
+      <c r="C13" s="23" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="20" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C20" s="26"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="28"/>
       <c r="F20" s="11"/>
     </row>
     <row r="21" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="22"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
       <c r="F21" s="12"/>
-      <c r="G21" s="24"/>
-      <c r="H21" s="24"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="26"/>
     </row>
     <row r="22" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C22" s="22"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="22"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="24"/>
       <c r="F22" s="12"/>
-      <c r="G22" s="24"/>
-      <c r="H22" s="24"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="26"/>
     </row>
     <row r="23" spans="3:8" x14ac:dyDescent="0.25">
       <c r="E23" s="13"/>
@@ -1076,10 +1085,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:B111"/>
+  <dimension ref="B2:B116"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="B117" sqref="B117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1134,7 +1143,7 @@
       </c>
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B10" s="27" t="s">
+      <c r="B10" s="22" t="s">
         <v>94</v>
       </c>
     </row>
@@ -1541,6 +1550,26 @@
     <row r="111" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B111" s="20" t="s">
         <v>53</v>
+      </c>
+    </row>
+    <row r="113" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B113" s="21" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="114" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B114" s="20" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="115" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B115" s="20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="116" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B116" s="20" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -1553,7 +1582,7 @@
   <dimension ref="B1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1606,7 +1635,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>

--- a/CastReporting.Reporting/TemplatesFiles/3- Excel-components-library.xlsx
+++ b/CastReporting.Reporting/TemplatesFiles/3- Excel-components-library.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Report Generator\git\trunk\CastReporting.Reporting\TemplatesFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Report Generator\git-repgen\trunk\CastReporting.Reporting\TemplatesFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="5280" windowHeight="7995" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="5280" windowHeight="7995"/>
   </bookViews>
   <sheets>
     <sheet name="1 - Information" sheetId="6" r:id="rId1"/>
@@ -322,9 +322,6 @@
     <t>For instance,  you can choose the number of lines you want to display and you can decide for which Business Criteria, you want to link your placeholder</t>
   </si>
   <si>
-    <t>For more information, please refer to "3- Excel-components-library-info.docx"</t>
-  </si>
-  <si>
     <t>2.23. - Report Generator Version</t>
   </si>
   <si>
@@ -332,6 +329,9 @@
   </si>
   <si>
     <t>RepGen:TEXT;REPGEN_VERSION</t>
+  </si>
+  <si>
+    <t>For more information, please refer to the official documentation in http://doc.castsoftware.com</t>
   </si>
 </sst>
 </file>
@@ -554,23 +554,23 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -947,8 +947,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:O23"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -972,8 +972,8 @@
     <row r="1" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D1" s="5"/>
       <c r="E1" s="6"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
     </row>
     <row r="2" spans="2:15" ht="23.25" x14ac:dyDescent="0.25">
       <c r="B2" s="7"/>
@@ -984,16 +984,16 @@
       <c r="G2" s="15"/>
     </row>
     <row r="3" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
       <c r="D3" s="3"/>
       <c r="E3" s="9"/>
       <c r="F3" s="1"/>
       <c r="G3" s="3"/>
     </row>
     <row r="4" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
       <c r="D4" s="3"/>
       <c r="E4" s="9"/>
       <c r="F4" s="1"/>
@@ -1036,31 +1036,31 @@
       <c r="O11" s="2"/>
     </row>
     <row r="13" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C13" s="23" t="s">
-        <v>96</v>
+      <c r="C13" s="28" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="20" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C20" s="28"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="28"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="27"/>
       <c r="F20" s="11"/>
     </row>
     <row r="21" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="24"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
       <c r="F21" s="12"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="26"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="25"/>
     </row>
     <row r="22" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C22" s="24"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
       <c r="F22" s="12"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="26"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="25"/>
     </row>
     <row r="23" spans="3:8" x14ac:dyDescent="0.25">
       <c r="E23" s="13"/>
@@ -1554,12 +1554,12 @@
     </row>
     <row r="113" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B113" s="21" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="114" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B114" s="20" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="115" spans="2:2" x14ac:dyDescent="0.25">
@@ -1569,7 +1569,7 @@
     </row>
     <row r="116" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B116" s="20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -1635,7 +1635,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>

--- a/CastReporting.Reporting/TemplatesFiles/3- Excel-components-library.xlsx
+++ b/CastReporting.Reporting/TemplatesFiles/3- Excel-components-library.xlsx
@@ -5,17 +5,18 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Report Generator\git-repgen\trunk\CastReporting.Reporting\TemplatesFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DMA\AppData\Local\CAST\ReportGenerator\1.3.0\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="5280" windowHeight="7995"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="5280" windowHeight="7995" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="1 - Information" sheetId="6" r:id="rId1"/>
     <sheet name="2 - Text blocks" sheetId="8" r:id="rId2"/>
     <sheet name="3 - Table Block - HF" sheetId="10" r:id="rId3"/>
     <sheet name="3 - Table Block - AFP" sheetId="9" r:id="rId4"/>
+    <sheet name="3 - Table Block - Violations" sheetId="11" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="AFP_LIST_TOTAL" comment="TABLE;AFP;TYPE=TOTAL" localSheetId="0">'1 - Information'!$C$20:$F$23</definedName>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="121">
   <si>
     <t>RepGen:TEXT;APPLICATION_NAME</t>
   </si>
@@ -332,6 +333,69 @@
   </si>
   <si>
     <t>For more information, please refer to the official documentation in http://doc.castsoftware.com</t>
+  </si>
+  <si>
+    <t>RepGen:TABLE;VIOLATION_SUMMARY;MODULES=1,CRITICAL=1,NONCRITICAL=0,GRADE=1,FAILED=1,ADDEDREMOVED=1,TOTAL=1,SUCCESSFUL=1,COMPLIANCE=1</t>
+  </si>
+  <si>
+    <t>* Block Name = VIOLATION_SUMMARY</t>
+  </si>
+  <si>
+    <t>* Options : MODULE=1|0</t>
+  </si>
+  <si>
+    <t>* Options : CRITICAL=1|0</t>
+  </si>
+  <si>
+    <t>* Options : NONCRITICAL=1|0</t>
+  </si>
+  <si>
+    <t>* Options : GRADE=1|0</t>
+  </si>
+  <si>
+    <t>* Options : TOTAL=1|0</t>
+  </si>
+  <si>
+    <t>* Options : FAILED=1|0</t>
+  </si>
+  <si>
+    <t>* Options : SUCCESSFUL=1|0</t>
+  </si>
+  <si>
+    <t>* Options : ADDEDREMOVED=1|0</t>
+  </si>
+  <si>
+    <t>* Options : COMPLIANCE=1|0</t>
+  </si>
+  <si>
+    <t>display results for application (=0 by default) or per module (=1)</t>
+  </si>
+  <si>
+    <t>include (=1 by default)/do not include (=0) critical violations</t>
+  </si>
+  <si>
+    <t>include (=1)/do not include (=0 by default) non-critical violations</t>
+  </si>
+  <si>
+    <t>show (=1 by default)/hide (=0) "Grade" column</t>
+  </si>
+  <si>
+    <t>show (=1 by default)/hide (=0) "Total Checks" column</t>
+  </si>
+  <si>
+    <t>show (=1)/hide (=0 by default) "# Violations" column</t>
+  </si>
+  <si>
+    <t>show (=1)/hide (=0 by default) "Grade" column</t>
+  </si>
+  <si>
+    <t>show (=1)/hide (=0 by default) "Added" and "Removed" columns</t>
+  </si>
+  <si>
+    <t>show (=1)/hide (=0 by default) "Compliance Ratio" column</t>
+  </si>
+  <si>
+    <t>3.3. - VIOLATION SUMMARY</t>
   </si>
 </sst>
 </file>
@@ -554,6 +618,9 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
@@ -568,9 +635,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -947,7 +1011,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:O23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
@@ -972,8 +1036,8 @@
     <row r="1" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D1" s="5"/>
       <c r="E1" s="6"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
     </row>
     <row r="2" spans="2:15" ht="23.25" x14ac:dyDescent="0.25">
       <c r="B2" s="7"/>
@@ -984,16 +1048,16 @@
       <c r="G2" s="15"/>
     </row>
     <row r="3" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
       <c r="D3" s="3"/>
       <c r="E3" s="9"/>
       <c r="F3" s="1"/>
       <c r="G3" s="3"/>
     </row>
     <row r="4" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
       <c r="D4" s="3"/>
       <c r="E4" s="9"/>
       <c r="F4" s="1"/>
@@ -1036,31 +1100,31 @@
       <c r="O11" s="2"/>
     </row>
     <row r="13" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C13" s="28" t="s">
+      <c r="C13" s="23" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="20" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C20" s="27"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="27"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="28"/>
       <c r="F20" s="11"/>
     </row>
     <row r="21" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C21" s="23"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="23"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
       <c r="F21" s="12"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="25"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="26"/>
     </row>
     <row r="22" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C22" s="23"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="23"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="24"/>
       <c r="F22" s="12"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="25"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="26"/>
     </row>
     <row r="23" spans="3:8" x14ac:dyDescent="0.25">
       <c r="E23" s="13"/>
@@ -1087,7 +1151,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:B116"/>
   <sheetViews>
-    <sheetView topLeftCell="A103" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B117" sqref="B117"/>
     </sheetView>
   </sheetViews>
@@ -1636,7 +1700,7 @@
   <dimension ref="B1:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection sqref="A1:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1709,4 +1773,109 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:C12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="29.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3" s="21" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B1" s="21" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="2" spans="2:3" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="20" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/CastReporting.Reporting/TemplatesFiles/3- Excel-components-library.xlsx
+++ b/CastReporting.Reporting/TemplatesFiles/3- Excel-components-library.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DMA\AppData\Local\CAST\ReportGenerator\1.3.0\Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\ReportGenerator\CastReporting.Reporting\TemplatesFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="123">
   <si>
     <t>RepGen:TEXT;APPLICATION_NAME</t>
   </si>
@@ -335,9 +335,6 @@
     <t>For more information, please refer to the official documentation in http://doc.castsoftware.com</t>
   </si>
   <si>
-    <t>RepGen:TABLE;VIOLATION_SUMMARY;MODULES=1,CRITICAL=1,NONCRITICAL=0,GRADE=1,FAILED=1,ADDEDREMOVED=1,TOTAL=1,SUCCESSFUL=1,COMPLIANCE=1</t>
-  </si>
-  <si>
     <t>* Block Name = VIOLATION_SUMMARY</t>
   </si>
   <si>
@@ -386,9 +383,6 @@
     <t>show (=1)/hide (=0 by default) "# Violations" column</t>
   </si>
   <si>
-    <t>show (=1)/hide (=0 by default) "Grade" column</t>
-  </si>
-  <si>
     <t>show (=1)/hide (=0 by default) "Added" and "Removed" columns</t>
   </si>
   <si>
@@ -396,6 +390,18 @@
   </si>
   <si>
     <t>3.3. - VIOLATION SUMMARY</t>
+  </si>
+  <si>
+    <t>show (=1)/hide (=0 by default) "Successful checks" column</t>
+  </si>
+  <si>
+    <t>RepGen:TABLE;VIOLATION_SUMMARY;MODULES=0,CRITICAL=1,NONCRITICAL=0,GRADE=1,FAILED=1,ADDEDREMOVED=1,TOTAL=1,SUCCESSFUL=1,COMPLIANCE=1,COUNT=-1</t>
+  </si>
+  <si>
+    <t>* Options : COUNT=-1</t>
+  </si>
+  <si>
+    <t>number of results limited or -1 = all results</t>
   </si>
 </sst>
 </file>
@@ -1777,10 +1783,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:C12"/>
+  <dimension ref="B1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1790,89 +1796,97 @@
   <sheetData>
     <row r="1" spans="2:3" s="21" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B1" s="21" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2" spans="2:3" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B2" s="20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="2:3" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B3" s="20" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="2:3" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B4" s="20" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="2:3" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="20" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" spans="2:3" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7" spans="2:3" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B7" s="20" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8" spans="2:3" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B8" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9" spans="2:3" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B9" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10" spans="2:3" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10" s="20" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11" spans="2:3" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>100</v>
+        <v>117</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/CastReporting.Reporting/TemplatesFiles/3- Excel-components-library.xlsx
+++ b/CastReporting.Reporting/TemplatesFiles/3- Excel-components-library.xlsx
@@ -398,10 +398,10 @@
     <t>RepGen:TABLE;VIOLATION_SUMMARY;MODULES=0,CRITICAL=1,NONCRITICAL=0,GRADE=1,FAILED=1,ADDEDREMOVED=1,TOTAL=1,SUCCESSFUL=1,COMPLIANCE=1,COUNT=-1</t>
   </si>
   <si>
-    <t>* Options : COUNT=-1</t>
-  </si>
-  <si>
-    <t>number of results limited or -1 = all results</t>
+    <t>* Options : COUNT=-1|N</t>
+  </si>
+  <si>
+    <t>Display only N results or all results if -1 (5 by default)</t>
   </si>
 </sst>
 </file>
@@ -1786,7 +1786,7 @@
   <dimension ref="B1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/CastReporting.Reporting/TemplatesFiles/3- Excel-components-library.xlsx
+++ b/CastReporting.Reporting/TemplatesFiles/3- Excel-components-library.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="5280" windowHeight="7995" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="5280" windowHeight="7995" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="1 - Information" sheetId="6" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="142">
   <si>
     <t>RepGen:TEXT;APPLICATION_NAME</t>
   </si>
@@ -402,6 +402,63 @@
   </si>
   <si>
     <t>Display only N results or all results if -1 (5 by default)</t>
+  </si>
+  <si>
+    <t>2.24. - Custom Expression</t>
+  </si>
+  <si>
+    <t>* Block Name = CUSTOM_EXPRESSION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">* Options = </t>
+  </si>
+  <si>
+    <t>- PARAMS=SZ a SZ b, (SZ pour sizing measure, QR pour quality rule, BF for background fact)</t>
+  </si>
+  <si>
+    <t>- EXPR=b/a, (operators can be +, -, *, / , (, ) )</t>
+  </si>
+  <si>
+    <t>- a=67011,</t>
+  </si>
+  <si>
+    <t>- b=67010,</t>
+  </si>
+  <si>
+    <t>- FORMAT=N0 (N2 by default, if nothing or erroneous format is set),</t>
+  </si>
+  <si>
+    <t>- SNAPSHOT = CURRENT|PREVIOUS with CURRENT by default (or if erroneous or nothing is set) to get the custom expression for the current snapshot or the previous one</t>
+  </si>
+  <si>
+    <t>you could have as number of parameters as you want (theorical limit is 16383 !!)</t>
+  </si>
+  <si>
+    <t>cf https://msdn.microsoft.com/en-us/library/dwhawy9k.aspx for the format</t>
+  </si>
+  <si>
+    <t>(examples for double https://msdn.microsoft.com/en-us/library/kfsatb94.aspx)</t>
+  </si>
+  <si>
+    <t>only N format is interesting here :</t>
+  </si>
+  <si>
+    <t>N: -195,489,100.84</t>
+  </si>
+  <si>
+    <t>N0: -195,489,101</t>
+  </si>
+  <si>
+    <t>N1: -195,489,100.8</t>
+  </si>
+  <si>
+    <t>N2: -195,489,100.84</t>
+  </si>
+  <si>
+    <t>N3: -195,489,100.838</t>
+  </si>
+  <si>
+    <t>RepGen:TEXT;CUSTOM_EXPRESSION;PARAMS=SZ a SZ b,EXPR = a/b,a=67011, b=67211,FORMAT=N0</t>
   </si>
 </sst>
 </file>
@@ -1155,10 +1212,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:B116"/>
+  <dimension ref="B2:B136"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B117" sqref="B117"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="C137" sqref="C137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1642,8 +1699,104 @@
         <v>98</v>
       </c>
     </row>
+    <row r="118" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B118" s="21" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="119" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B119" s="20" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="120" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B120" s="20" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="121" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B121" s="20" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="122" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B122" s="20" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="123" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B123" s="20" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="124" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B124" s="20" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="125" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B125" s="20" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="126" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B126" s="20" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="127" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B127" s="20" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="128" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B128" s="20" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="129" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B129" s="20" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="130" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B130" s="20" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="131" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B131" s="20" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="132" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B132" s="20" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="133" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B133" s="20" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="134" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B134" s="20" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="135" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B135" s="20" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="136" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B136" s="20" t="s">
+        <v>141</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1785,7 +1938,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>

--- a/CastReporting.Reporting/TemplatesFiles/3- Excel-components-library.xlsx
+++ b/CastReporting.Reporting/TemplatesFiles/3- Excel-components-library.xlsx
@@ -458,7 +458,7 @@
     <t>N3: -195,489,100.838</t>
   </si>
   <si>
-    <t>RepGen:TEXT;CUSTOM_EXPRESSION;PARAMS=SZ a SZ b,EXPR = a/b,a=67011, b=67211,FORMAT=N0</t>
+    <t>RepGen:TEXT;CUSTOM_EXPRESSION;PARAMS=SZ a SZ b,EXPR = a/b,a=67010, b=67011,FORMAT=N0</t>
   </si>
 </sst>
 </file>
@@ -1215,7 +1215,7 @@
   <dimension ref="B2:B136"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="C137" sqref="C137"/>
+      <selection activeCell="B136" sqref="B136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/CastReporting.Reporting/TemplatesFiles/3- Excel-components-library.xlsx
+++ b/CastReporting.Reporting/TemplatesFiles/3- Excel-components-library.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="140">
   <si>
     <t>RepGen:TEXT;APPLICATION_NAME</t>
   </si>
@@ -431,18 +431,6 @@
     <t>- SNAPSHOT = CURRENT|PREVIOUS with CURRENT by default (or if erroneous or nothing is set) to get the custom expression for the current snapshot or the previous one</t>
   </si>
   <si>
-    <t>you could have as number of parameters as you want (theorical limit is 16383 !!)</t>
-  </si>
-  <si>
-    <t>cf https://msdn.microsoft.com/en-us/library/dwhawy9k.aspx for the format</t>
-  </si>
-  <si>
-    <t>(examples for double https://msdn.microsoft.com/en-us/library/kfsatb94.aspx)</t>
-  </si>
-  <si>
-    <t>only N format is interesting here :</t>
-  </si>
-  <si>
     <t>N: -195,489,100.84</t>
   </si>
   <si>
@@ -455,10 +443,16 @@
     <t>N2: -195,489,100.84</t>
   </si>
   <si>
-    <t>N3: -195,489,100.838</t>
-  </si>
-  <si>
-    <t>RepGen:TEXT;CUSTOM_EXPRESSION;PARAMS=SZ a SZ b,EXPR = a/b,a=67010, b=67011,FORMAT=N0</t>
+    <t>You can have as number of parameters as you want (theorical limit is 16383…).</t>
+  </si>
+  <si>
+    <t>The format of return value is explained here : https://msdn.microsoft.com/en-us/library/dwhawy9k.aspx, with examples for double here : https://msdn.microsoft.com/en-us/library/kfsatb94.aspx ), only N format is interesting here :</t>
+  </si>
+  <si>
+    <t>/!\ don’t put blank char in the definition of parameters (,a=67011,b=67010,c=…)</t>
+  </si>
+  <si>
+    <t>RepGen:TEXT;CUSTOM_EXPRESSION;PARAMS=SZ a SZ b,EXPR=a/b,a=67010,b=67011,FORMAT=N2</t>
   </si>
 </sst>
 </file>
@@ -468,7 +462,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0&quot; LoC&quot;"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -567,6 +561,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Corbel"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -631,7 +631,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -698,6 +698,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1212,10 +1215,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:B136"/>
+  <dimension ref="B2:B134"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="B136" sqref="B136"/>
+      <selection activeCell="B134" sqref="B134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1744,54 +1747,44 @@
         <v>131</v>
       </c>
     </row>
-    <row r="127" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B127" s="20" t="s">
+    <row r="127" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B127" s="29" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="128" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B128" s="29" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="129" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B129" s="29" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="128" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B128" s="20" t="s">
+    <row r="130" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B130" s="29" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="129" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B129" s="20" t="s">
+    <row r="131" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B131" s="29" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="130" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B130" s="20" t="s">
+    <row r="132" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B132" s="29" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="131" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B131" s="20" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="132" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B132" s="20" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="133" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B133" s="20" t="s">
+    <row r="133" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B133" s="29" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="134" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B134" s="20" t="s">
         <v>139</v>
-      </c>
-    </row>
-    <row r="135" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B135" s="20" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="136" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B136" s="20" t="s">
-        <v>141</v>
       </c>
     </row>
   </sheetData>

--- a/CastReporting.Reporting/TemplatesFiles/3- Excel-components-library.xlsx
+++ b/CastReporting.Reporting/TemplatesFiles/3- Excel-components-library.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="142">
   <si>
     <t>RepGen:TEXT;APPLICATION_NAME</t>
   </si>
@@ -122,12 +122,6 @@
   </si>
   <si>
     <t>* Block Name = APPLICATION_RULE</t>
-  </si>
-  <si>
-    <t>* Options : ID=QualityRuleId</t>
-  </si>
-  <si>
-    <t>RepGen:TEXT;APPLICATION_RULE</t>
   </si>
   <si>
     <t>* Block Name = METRIC_TECHNICAL_DEBT</t>
@@ -453,6 +447,18 @@
   </si>
   <si>
     <t>RepGen:TEXT;CUSTOM_EXPRESSION;PARAMS=SZ a SZ b,EXPR=a/b,a=67010,b=67011,FORMAT=N2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">* Options : </t>
+  </si>
+  <si>
+    <t>- ID=QualityRuleId or TechnicalCriterionId or BusinessCriterionId</t>
+  </si>
+  <si>
+    <t>- SNAPSHOT=CURRENT | PREVIOUS (CURRENT by default)</t>
+  </si>
+  <si>
+    <t>RepGen:TEXT;APPLICATION_RULE;ID=7156,SNAPSHOT=PREVIOUS</t>
   </si>
 </sst>
 </file>
@@ -631,7 +637,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -684,6 +690,9 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
@@ -699,9 +708,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Accent4" xfId="3" builtinId="41"/>
@@ -1102,8 +1109,8 @@
     <row r="1" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D1" s="5"/>
       <c r="E1" s="6"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
     </row>
     <row r="2" spans="2:15" ht="23.25" x14ac:dyDescent="0.25">
       <c r="B2" s="7"/>
@@ -1114,16 +1121,16 @@
       <c r="G2" s="15"/>
     </row>
     <row r="3" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
       <c r="D3" s="3"/>
       <c r="E3" s="9"/>
       <c r="F3" s="1"/>
       <c r="G3" s="3"/>
     </row>
     <row r="4" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
       <c r="D4" s="3"/>
       <c r="E4" s="9"/>
       <c r="F4" s="1"/>
@@ -1160,37 +1167,37 @@
     </row>
     <row r="11" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C11" s="19" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="N11" s="3"/>
       <c r="O11" s="2"/>
     </row>
     <row r="13" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C13" s="23" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="20" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C20" s="28"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="28"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
       <c r="F20" s="11"/>
     </row>
     <row r="21" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="24"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
       <c r="F21" s="12"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="26"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="27"/>
     </row>
     <row r="22" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C22" s="24"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
       <c r="F22" s="12"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="26"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="27"/>
     </row>
     <row r="23" spans="3:8" x14ac:dyDescent="0.25">
       <c r="E23" s="13"/>
@@ -1215,10 +1222,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:B134"/>
+  <dimension ref="B2:B136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="B134" sqref="B134"/>
+    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="B64" sqref="B64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1239,7 +1246,7 @@
   <sheetData>
     <row r="2" spans="2:2" s="21" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B2" s="21" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.25">
@@ -1259,7 +1266,7 @@
     </row>
     <row r="7" spans="2:2" s="21" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B7" s="21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.25">
@@ -1274,7 +1281,7 @@
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B10" s="22" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.25">
@@ -1284,7 +1291,7 @@
     </row>
     <row r="13" spans="2:2" s="21" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B13" s="21" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="2:2" x14ac:dyDescent="0.25">
@@ -1304,7 +1311,7 @@
     </row>
     <row r="18" spans="2:2" s="21" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B18" s="21" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.25">
@@ -1324,7 +1331,7 @@
     </row>
     <row r="23" spans="2:2" s="21" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B23" s="21" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.25">
@@ -1344,7 +1351,7 @@
     </row>
     <row r="28" spans="2:2" s="21" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B28" s="21" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.25">
@@ -1364,7 +1371,7 @@
     </row>
     <row r="33" spans="2:2" s="21" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B33" s="21" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.25">
@@ -1384,7 +1391,7 @@
     </row>
     <row r="38" spans="2:2" s="21" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B38" s="21" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.25">
@@ -1404,7 +1411,7 @@
     </row>
     <row r="43" spans="2:2" s="21" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B43" s="21" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.25">
@@ -1424,7 +1431,7 @@
     </row>
     <row r="48" spans="2:2" s="21" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B48" s="21" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.25">
@@ -1444,7 +1451,7 @@
     </row>
     <row r="53" spans="2:2" s="21" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B53" s="21" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="54" spans="2:2" x14ac:dyDescent="0.25">
@@ -1464,7 +1471,7 @@
     </row>
     <row r="58" spans="2:2" s="21" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B58" s="21" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="59" spans="2:2" x14ac:dyDescent="0.25">
@@ -1474,317 +1481,327 @@
     </row>
     <row r="60" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B60" s="20" t="s">
-        <v>30</v>
+        <v>138</v>
       </c>
     </row>
     <row r="61" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B61" s="20" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="63" spans="2:2" s="21" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B63" s="21" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B64" s="20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B65" s="20" t="s">
-        <v>33</v>
+      <c r="B61" s="30" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B62" s="30" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B63" s="20" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2" s="21" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B65" s="21" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="66" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B66" s="20" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B67" s="20" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B68" s="20" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="68" spans="2:2" s="21" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B68" s="21" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B69" s="20" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B70" s="20" t="s">
-        <v>33</v>
+    <row r="70" spans="2:2" s="21" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B70" s="21" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="71" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B71" s="20" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="73" spans="2:2" s="21" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B73" s="21" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B74" s="20" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B75" s="20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B72" s="20" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B73" s="20" t="s">
         <v>33</v>
+      </c>
+    </row>
+    <row r="75" spans="2:2" s="21" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B75" s="21" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="76" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B76" s="20" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="78" spans="2:2" s="21" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B78" s="21" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B79" s="20" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B80" s="20" t="s">
-        <v>39</v>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B77" s="20" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B78" s="20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="80" spans="2:2" s="21" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B80" s="21" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="81" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B81" s="20" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="83" spans="2:2" s="21" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B83" s="21" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B84" s="20" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B85" s="20" t="s">
-        <v>42</v>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B82" s="20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B83" s="20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="85" spans="2:2" s="21" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B85" s="21" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="86" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B86" s="20" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="88" spans="2:2" s="21" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B88" s="21" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B89" s="20" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B90" s="20" t="s">
-        <v>42</v>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B87" s="20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B88" s="20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="90" spans="2:2" s="21" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B90" s="21" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="91" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B91" s="20" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="93" spans="2:2" s="21" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B93" s="21" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B94" s="20" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B95" s="20" t="s">
-        <v>33</v>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="92" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B92" s="20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="93" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B93" s="20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="95" spans="2:2" s="21" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B95" s="21" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="96" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B96" s="20" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="98" spans="2:2" s="21" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B98" s="21" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B99" s="20" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B100" s="20" t="s">
-        <v>33</v>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B97" s="20" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B98" s="20" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="100" spans="2:2" s="21" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B100" s="21" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="101" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B101" s="20" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="103" spans="2:2" s="21" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B103" s="21" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B104" s="20" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B105" s="20" t="s">
-        <v>33</v>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B102" s="20" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B103" s="20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="105" spans="2:2" s="21" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B105" s="21" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="106" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B106" s="20" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="108" spans="2:2" s="21" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B108" s="21" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B109" s="20" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B110" s="20" t="s">
-        <v>33</v>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B107" s="20" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B108" s="20" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="110" spans="2:2" s="21" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B110" s="21" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="111" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B111" s="20" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="113" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B113" s="21" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="114" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B114" s="20" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="115" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B115" s="20" t="s">
-        <v>33</v>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B112" s="20" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="113" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B113" s="20" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="115" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B115" s="21" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="116" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B116" s="20" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="118" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B118" s="21" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="119" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B119" s="20" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="120" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B120" s="20" t="s">
-        <v>125</v>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="117" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B117" s="20" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="118" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B118" s="20" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="120" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B120" s="21" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="121" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B121" s="20" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="122" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B122" s="20" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="123" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B123" s="20" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="124" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B124" s="20" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="125" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B125" s="20" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="126" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B126" s="20" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="127" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B127" s="20" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="128" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B128" s="20" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="129" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B129" s="24" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="130" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B130" s="24" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="131" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B131" s="24" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="132" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B132" s="24" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="127" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B127" s="29" t="s">
+    <row r="133" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B133" s="24" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="134" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B134" s="24" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="135" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B135" s="24" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="128" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B128" s="29" t="s">
+    <row r="136" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B136" s="20" t="s">
         <v>137</v>
-      </c>
-    </row>
-    <row r="129" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B129" s="29" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="130" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B130" s="29" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="131" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B131" s="29" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="132" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B132" s="29" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="133" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B133" s="29" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="134" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B134" s="20" t="s">
-        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -1805,41 +1822,41 @@
   <sheetData>
     <row r="1" spans="2:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B1" s="21" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -1874,41 +1891,41 @@
   <sheetData>
     <row r="1" spans="2:11" s="21" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B1" s="21" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="2:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B2" s="20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="2:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B3" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="2:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B4" s="20" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="2:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="20" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
@@ -1942,97 +1959,97 @@
   <sheetData>
     <row r="1" spans="2:3" s="21" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B1" s="21" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="2:3" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B2" s="20" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="2:3" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B3" s="20" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="2:3" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B4" s="20" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="2:3" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="20" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="2:3" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="20" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="2:3" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B7" s="20" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="2:3" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B8" s="20" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" spans="2:3" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B9" s="20" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10" spans="2:3" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10" s="20" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11" spans="2:3" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="20" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="12" spans="2:3" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="20" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>

--- a/CastReporting.Reporting/TemplatesFiles/3- Excel-components-library.xlsx
+++ b/CastReporting.Reporting/TemplatesFiles/3- Excel-components-library.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="148">
   <si>
     <t>RepGen:TEXT;APPLICATION_NAME</t>
   </si>
@@ -224,36 +224,6 @@
   </si>
   <si>
     <t>2.12. - Grade for a quality rule (id can be changed)</t>
-  </si>
-  <si>
-    <t>2.13. - Technical Debt Result</t>
-  </si>
-  <si>
-    <t>2.14. - Unadjusted Data Function Metric Value</t>
-  </si>
-  <si>
-    <t>2.15. - Unadjusted Transactional Function Metric</t>
-  </si>
-  <si>
-    <t>2.16. - Rule Total Checks</t>
-  </si>
-  <si>
-    <t>2.17. - Rule Failed Checks</t>
-  </si>
-  <si>
-    <t>2.18. - Rule Failed checks on Total Checks</t>
-  </si>
-  <si>
-    <t>2.19. - Added EFP Metric Value</t>
-  </si>
-  <si>
-    <t>2.20. - Deleted EFP Metric Value</t>
-  </si>
-  <si>
-    <t>2.21. - Modified EFP Metric Value</t>
-  </si>
-  <si>
-    <t>2.22. - Aggregated EFP Metric Value</t>
   </si>
   <si>
     <t>* Block Name = IFPUG_FUNCTIONS</t>
@@ -317,9 +287,6 @@
     <t>For instance,  you can choose the number of lines you want to display and you can decide for which Business Criteria, you want to link your placeholder</t>
   </si>
   <si>
-    <t>2.23. - Report Generator Version</t>
-  </si>
-  <si>
     <t>* Block Name = REPGEN_VERSION</t>
   </si>
   <si>
@@ -398,9 +365,6 @@
     <t>Display only N results or all results if -1 (5 by default)</t>
   </si>
   <si>
-    <t>2.24. - Custom Expression</t>
-  </si>
-  <si>
     <t>* Block Name = CUSTOM_EXPRESSION</t>
   </si>
   <si>
@@ -459,6 +423,60 @@
   </si>
   <si>
     <t>RepGen:TEXT;APPLICATION_RULE;ID=7156,SNAPSHOT=PREVIOUS</t>
+  </si>
+  <si>
+    <t>2.14. - Technical Debt Result</t>
+  </si>
+  <si>
+    <t>2.15. - Unadjusted Data Function Metric Value</t>
+  </si>
+  <si>
+    <t>2.16. - Unadjusted Transactional Function Metric</t>
+  </si>
+  <si>
+    <t>2.17. - Rule Total Checks</t>
+  </si>
+  <si>
+    <t>2.18. - Rule Failed Checks</t>
+  </si>
+  <si>
+    <t>2.19. - Rule Failed checks on Total Checks</t>
+  </si>
+  <si>
+    <t>2.20. - Added EFP Metric Value</t>
+  </si>
+  <si>
+    <t>2.21. - Deleted EFP Metric Value</t>
+  </si>
+  <si>
+    <t>2.22. - Modified EFP Metric Value</t>
+  </si>
+  <si>
+    <t>2.23. - Aggregated EFP Metric Value</t>
+  </si>
+  <si>
+    <t>2.24. - Report Generator Version</t>
+  </si>
+  <si>
+    <t>2.25. - Custom Expression</t>
+  </si>
+  <si>
+    <t>2.13. -Result for a metric id</t>
+  </si>
+  <si>
+    <t>- or SZID=SizingMeasureId</t>
+  </si>
+  <si>
+    <t>- or BFID=Background Fact Id</t>
+  </si>
+  <si>
+    <t>- FORMAT=N0|N2 (only for sizing measure or background fact)</t>
+  </si>
+  <si>
+    <t>* Block Name = APPLICATION_METRIC</t>
+  </si>
+  <si>
+    <t>RepGen:TEXT;APPLICATION_METRIC;SZID=10151,SNAPSHOT=PREVIOUS,FORMAT=N0</t>
   </si>
 </sst>
 </file>
@@ -693,6 +711,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
@@ -708,7 +727,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Accent4" xfId="3" builtinId="41"/>
@@ -1109,8 +1127,8 @@
     <row r="1" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D1" s="5"/>
       <c r="E1" s="6"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
     </row>
     <row r="2" spans="2:15" ht="23.25" x14ac:dyDescent="0.25">
       <c r="B2" s="7"/>
@@ -1121,16 +1139,16 @@
       <c r="G2" s="15"/>
     </row>
     <row r="3" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
       <c r="D3" s="3"/>
       <c r="E3" s="9"/>
       <c r="F3" s="1"/>
       <c r="G3" s="3"/>
     </row>
     <row r="4" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
       <c r="D4" s="3"/>
       <c r="E4" s="9"/>
       <c r="F4" s="1"/>
@@ -1167,37 +1185,37 @@
     </row>
     <row r="11" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C11" s="19" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="N11" s="3"/>
       <c r="O11" s="2"/>
     </row>
     <row r="13" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C13" s="23" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C20" s="29"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="29"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="30"/>
       <c r="F20" s="11"/>
     </row>
     <row r="21" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
       <c r="F21" s="12"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="27"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="28"/>
     </row>
     <row r="22" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C22" s="25"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="25"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
       <c r="F22" s="12"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="27"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="28"/>
     </row>
     <row r="23" spans="3:8" x14ac:dyDescent="0.25">
       <c r="E23" s="13"/>
@@ -1222,10 +1240,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:B136"/>
+  <dimension ref="B2:B146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="B64" sqref="B64"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="B74" sqref="B74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1281,7 +1299,7 @@
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B10" s="22" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.25">
@@ -1481,72 +1499,77 @@
     </row>
     <row r="60" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B60" s="20" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
     </row>
     <row r="61" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B61" s="30" t="s">
-        <v>139</v>
+      <c r="B61" s="25" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="62" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B62" s="30" t="s">
-        <v>140</v>
+      <c r="B62" s="25" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="63" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B63" s="20" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
     </row>
     <row r="65" spans="2:2" s="21" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B65" s="21" t="s">
-        <v>64</v>
+        <v>142</v>
       </c>
     </row>
     <row r="66" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B66" s="20" t="s">
-        <v>30</v>
+        <v>146</v>
       </c>
     </row>
     <row r="67" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B67" s="20" t="s">
-        <v>31</v>
+        <v>126</v>
       </c>
     </row>
     <row r="68" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B68" s="20" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="70" spans="2:2" s="21" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B70" s="21" t="s">
-        <v>65</v>
+      <c r="B68" s="25" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B69" s="25" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B70" s="25" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="71" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B71" s="20" t="s">
-        <v>32</v>
+      <c r="B71" s="25" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="72" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B72" s="20" t="s">
-        <v>31</v>
+      <c r="B72" s="25" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="73" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B73" s="20" t="s">
-        <v>33</v>
+        <v>147</v>
       </c>
     </row>
     <row r="75" spans="2:2" s="21" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B75" s="21" t="s">
-        <v>66</v>
+        <v>130</v>
       </c>
     </row>
     <row r="76" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B76" s="20" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="77" spans="2:2" x14ac:dyDescent="0.25">
@@ -1556,117 +1579,117 @@
     </row>
     <row r="78" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B78" s="20" t="s">
-        <v>35</v>
+        <v>4</v>
       </c>
     </row>
     <row r="80" spans="2:2" s="21" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B80" s="21" t="s">
-        <v>67</v>
+        <v>131</v>
       </c>
     </row>
     <row r="81" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B81" s="20" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="82" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B82" s="20" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="83" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B83" s="20" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="85" spans="2:2" s="21" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B85" s="21" t="s">
-        <v>68</v>
+        <v>132</v>
       </c>
     </row>
     <row r="86" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B86" s="20" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="87" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B87" s="20" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="88" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B88" s="20" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="90" spans="2:2" s="21" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B90" s="21" t="s">
-        <v>69</v>
+        <v>133</v>
       </c>
     </row>
     <row r="91" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B91" s="20" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="92" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B92" s="20" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="93" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B93" s="20" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="95" spans="2:2" s="21" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B95" s="21" t="s">
-        <v>70</v>
+        <v>134</v>
       </c>
     </row>
     <row r="96" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B96" s="20" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="97" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B97" s="20" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
     </row>
     <row r="98" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B98" s="20" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="100" spans="2:2" s="21" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B100" s="21" t="s">
-        <v>71</v>
+        <v>135</v>
       </c>
     </row>
     <row r="101" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B101" s="20" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="102" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B102" s="20" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
     </row>
     <row r="103" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B103" s="20" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="105" spans="2:2" s="21" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B105" s="21" t="s">
-        <v>72</v>
+        <v>136</v>
       </c>
     </row>
     <row r="106" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B106" s="20" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="107" spans="2:2" x14ac:dyDescent="0.25">
@@ -1676,17 +1699,17 @@
     </row>
     <row r="108" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B108" s="20" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="110" spans="2:2" s="21" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B110" s="21" t="s">
-        <v>73</v>
+        <v>137</v>
       </c>
     </row>
     <row r="111" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B111" s="20" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="112" spans="2:2" x14ac:dyDescent="0.25">
@@ -1696,17 +1719,17 @@
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B113" s="20" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="115" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="115" spans="2:2" s="21" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B115" s="21" t="s">
-        <v>94</v>
+        <v>138</v>
       </c>
     </row>
     <row r="116" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B116" s="20" t="s">
-        <v>95</v>
+        <v>48</v>
       </c>
     </row>
     <row r="117" spans="2:2" x14ac:dyDescent="0.25">
@@ -1716,92 +1739,132 @@
     </row>
     <row r="118" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B118" s="20" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="120" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="120" spans="2:2" s="21" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B120" s="21" t="s">
-        <v>121</v>
+        <v>139</v>
       </c>
     </row>
     <row r="121" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B121" s="20" t="s">
-        <v>122</v>
+        <v>50</v>
       </c>
     </row>
     <row r="122" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B122" s="20" t="s">
-        <v>123</v>
+        <v>31</v>
       </c>
     </row>
     <row r="123" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B123" s="20" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="124" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B124" s="20" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="125" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B125" s="20" t="s">
-        <v>126</v>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="125" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B125" s="21" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="126" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B126" s="20" t="s">
-        <v>127</v>
+        <v>84</v>
       </c>
     </row>
     <row r="127" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B127" s="20" t="s">
-        <v>128</v>
+        <v>31</v>
       </c>
     </row>
     <row r="128" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B128" s="20" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="129" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B129" s="24" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="130" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B130" s="24" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="131" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B131" s="24" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="132" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B132" s="24" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="133" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B133" s="24" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="134" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B134" s="24" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="135" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B135" s="24" t="s">
-        <v>136</v>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="130" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B130" s="21" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="131" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B131" s="20" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="132" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B132" s="20" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="133" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B133" s="20" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="134" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B134" s="20" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="135" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B135" s="20" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="136" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B136" s="20" t="s">
-        <v>137</v>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="137" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B137" s="20" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="138" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B138" s="20" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="139" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B139" s="24" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="140" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B140" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="141" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B141" s="24" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="142" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B142" s="24" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="143" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B143" s="24" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="144" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B144" s="24" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="145" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B145" s="24" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="146" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B146" s="20" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -1822,41 +1885,41 @@
   <sheetData>
     <row r="1" spans="2:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B1" s="21" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="C3" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="C4" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="C5" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -1891,41 +1954,41 @@
   <sheetData>
     <row r="1" spans="2:11" s="21" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B1" s="21" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="2:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B2" s="20" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="2:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B3" s="20" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="2:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B4" s="20" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="2:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="20" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
@@ -1959,97 +2022,97 @@
   <sheetData>
     <row r="1" spans="2:3" s="21" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B1" s="21" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="2:3" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B2" s="20" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="2:3" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B3" s="20" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="2:3" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B4" s="20" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="2:3" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="20" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="2:3" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="20" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="2:3" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B7" s="20" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="2:3" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B8" s="20" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="2:3" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B9" s="20" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10" spans="2:3" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10" s="20" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="2:3" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="20" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
     </row>
     <row r="12" spans="2:3" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="20" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>

--- a/CastReporting.Reporting/TemplatesFiles/3- Excel-components-library.xlsx
+++ b/CastReporting.Reporting/TemplatesFiles/3- Excel-components-library.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="148">
   <si>
     <t>RepGen:TEXT;APPLICATION_NAME</t>
   </si>
@@ -145,25 +145,10 @@
     <t>* Block Name = RULE_TOTAL_CHECKS</t>
   </si>
   <si>
-    <t>* Options = RULID=N (by default RULID=7164) where N indicates the rule Id</t>
-  </si>
-  <si>
-    <t>RepGen:TEXT;RULE_TOTAL_CHECKS</t>
-  </si>
-  <si>
     <t>* Block Name = RULE_FAILED_CHECKS</t>
   </si>
   <si>
-    <t>* Options = RULID=N (by default RULID=7126) where N indicates the rule Id</t>
-  </si>
-  <si>
-    <t>RepGen:TEXT;RULE_FAILED_CHECKS</t>
-  </si>
-  <si>
     <t>* Block Name = RULE_FAILED_ON_TOTAL_CHECKS</t>
-  </si>
-  <si>
-    <t>RepGen:TEXT;RULE_FAILED_ON_TOTAL_CHECKS</t>
   </si>
   <si>
     <t>* Block Name = METRIC_EFP_ADDED</t>
@@ -477,6 +462,21 @@
   </si>
   <si>
     <t>RepGen:TEXT;APPLICATION_METRIC;SZID=10151,SNAPSHOT=PREVIOUS,FORMAT=N0</t>
+  </si>
+  <si>
+    <t>- RULID=quality rule id</t>
+  </si>
+  <si>
+    <t>- SNAPSHOT=CURRENT |PREVIOUS (CURRENT by default)</t>
+  </si>
+  <si>
+    <t>RepGen:TEXT;RULE_FAILED_ON_TOTAL_CHECKS;RULID=7126,SNAPSHOT=CURRENT</t>
+  </si>
+  <si>
+    <t>RepGen:TEXT;RULE_FAILED_CHECKS;RULID=7126</t>
+  </si>
+  <si>
+    <t>RepGen:TEXT;RULE_TOTAL_CHECKS;RULID=7126,SNAPSHOT=PREVIOUS</t>
   </si>
 </sst>
 </file>
@@ -1185,14 +1185,14 @@
     </row>
     <row r="11" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C11" s="19" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="N11" s="3"/>
       <c r="O11" s="2"/>
     </row>
     <row r="13" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C13" s="23" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20" spans="3:8" x14ac:dyDescent="0.25">
@@ -1240,10 +1240,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:B146"/>
+  <dimension ref="B2:B152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="B74" sqref="B74"/>
+    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
+      <selection activeCell="B96" sqref="B96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1264,7 +1264,7 @@
   <sheetData>
     <row r="2" spans="2:2" s="21" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B2" s="21" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.25">
@@ -1284,7 +1284,7 @@
     </row>
     <row r="7" spans="2:2" s="21" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B7" s="21" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.25">
@@ -1299,7 +1299,7 @@
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B10" s="22" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.25">
@@ -1309,7 +1309,7 @@
     </row>
     <row r="13" spans="2:2" s="21" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B13" s="21" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="2:2" x14ac:dyDescent="0.25">
@@ -1329,7 +1329,7 @@
     </row>
     <row r="18" spans="2:2" s="21" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B18" s="21" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.25">
@@ -1349,7 +1349,7 @@
     </row>
     <row r="23" spans="2:2" s="21" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B23" s="21" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.25">
@@ -1369,7 +1369,7 @@
     </row>
     <row r="28" spans="2:2" s="21" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B28" s="21" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.25">
@@ -1389,7 +1389,7 @@
     </row>
     <row r="33" spans="2:2" s="21" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B33" s="21" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.25">
@@ -1409,7 +1409,7 @@
     </row>
     <row r="38" spans="2:2" s="21" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B38" s="21" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.25">
@@ -1429,7 +1429,7 @@
     </row>
     <row r="43" spans="2:2" s="21" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B43" s="21" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.25">
@@ -1449,7 +1449,7 @@
     </row>
     <row r="48" spans="2:2" s="21" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B48" s="21" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.25">
@@ -1469,7 +1469,7 @@
     </row>
     <row r="53" spans="2:2" s="21" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B53" s="21" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="54" spans="2:2" x14ac:dyDescent="0.25">
@@ -1489,7 +1489,7 @@
     </row>
     <row r="58" spans="2:2" s="21" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B58" s="21" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="59" spans="2:2" x14ac:dyDescent="0.25">
@@ -1499,72 +1499,72 @@
     </row>
     <row r="60" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B60" s="20" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="61" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B61" s="25" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="62" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B62" s="25" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="63" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B63" s="20" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="65" spans="2:2" s="21" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B65" s="21" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
     </row>
     <row r="66" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B66" s="20" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="67" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B67" s="20" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="68" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B68" s="25" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="69" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B69" s="25" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="70" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B70" s="25" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="71" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B71" s="25" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="72" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B72" s="25" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
     <row r="73" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B73" s="20" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
     </row>
     <row r="75" spans="2:2" s="21" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B75" s="21" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="76" spans="2:2" x14ac:dyDescent="0.25">
@@ -1584,7 +1584,7 @@
     </row>
     <row r="80" spans="2:2" s="21" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B80" s="21" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="81" spans="2:2" x14ac:dyDescent="0.25">
@@ -1604,7 +1604,7 @@
     </row>
     <row r="85" spans="2:2" s="21" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B85" s="21" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="86" spans="2:2" x14ac:dyDescent="0.25">
@@ -1624,7 +1624,7 @@
     </row>
     <row r="90" spans="2:2" s="21" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B90" s="21" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="91" spans="2:2" x14ac:dyDescent="0.25">
@@ -1634,237 +1634,267 @@
     </row>
     <row r="92" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B92" s="20" t="s">
-        <v>37</v>
+        <v>106</v>
       </c>
     </row>
     <row r="93" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B93" s="20" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="95" spans="2:2" s="21" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B95" s="21" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B96" s="20" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B97" s="20" t="s">
-        <v>40</v>
+      <c r="B93" s="25" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="94" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B94" s="25" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="95" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B95" s="20" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="97" spans="2:2" s="21" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B97" s="21" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="98" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B98" s="20" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="100" spans="2:2" s="21" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B100" s="21" t="s">
-        <v>135</v>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B99" s="20" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B100" s="25" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="101" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B101" s="20" t="s">
-        <v>42</v>
+      <c r="B101" s="25" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="102" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B102" s="20" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B103" s="20" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="105" spans="2:2" s="21" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B105" s="21" t="s">
-        <v>136</v>
+        <v>146</v>
+      </c>
+    </row>
+    <row r="104" spans="2:2" s="21" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B104" s="21" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B105" s="20" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="106" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B106" s="20" t="s">
-        <v>44</v>
+        <v>106</v>
       </c>
     </row>
     <row r="107" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B107" s="20" t="s">
-        <v>31</v>
+      <c r="B107" s="25" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="108" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B108" s="20" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="110" spans="2:2" s="21" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B110" s="21" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B111" s="20" t="s">
-        <v>46</v>
+      <c r="B108" s="25" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B109" s="20" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="111" spans="2:2" s="21" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B111" s="21" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="112" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B112" s="20" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B113" s="20" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="115" spans="2:2" s="21" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B115" s="21" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="116" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B116" s="20" t="s">
-        <v>48</v>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="114" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B114" s="20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="116" spans="2:2" s="21" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B116" s="21" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="117" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B117" s="20" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
     </row>
     <row r="118" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B118" s="20" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="120" spans="2:2" s="21" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B120" s="21" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="121" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B121" s="20" t="s">
-        <v>50</v>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="119" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B119" s="20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="121" spans="2:2" s="21" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B121" s="21" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="122" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B122" s="20" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
     </row>
     <row r="123" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B123" s="20" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="125" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B125" s="21" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="126" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B126" s="20" t="s">
-        <v>84</v>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="124" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B124" s="20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="126" spans="2:2" s="21" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B126" s="21" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="127" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B127" s="20" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
     </row>
     <row r="128" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B128" s="20" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="130" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B130" s="21" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="131" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B131" s="20" t="s">
-        <v>110</v>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="129" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B129" s="20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="131" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B131" s="21" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="132" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B132" s="20" t="s">
-        <v>111</v>
+        <v>79</v>
       </c>
     </row>
     <row r="133" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B133" s="20" t="s">
-        <v>112</v>
+        <v>31</v>
       </c>
     </row>
     <row r="134" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B134" s="20" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="135" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B135" s="20" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="136" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B136" s="20" t="s">
-        <v>115</v>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="136" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B136" s="21" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="137" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B137" s="20" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
     </row>
     <row r="138" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B138" s="20" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="139" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B139" s="24" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="140" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B140" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="141" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B141" s="24" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="142" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B142" s="24" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="143" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B143" s="24" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="144" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B144" s="24" t="s">
-        <v>121</v>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="139" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B139" s="20" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="140" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B140" s="20" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="141" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B141" s="20" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="142" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B142" s="20" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="143" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B143" s="20" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="144" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B144" s="20" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="145" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B145" s="24" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="146" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B146" s="20" t="s">
-        <v>125</v>
+        <v>117</v>
+      </c>
+    </row>
+    <row r="146" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B146" s="24" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="147" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B147" s="24" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="148" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B148" s="24" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="149" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B149" s="24" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="150" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B150" s="24" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="151" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B151" s="24" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="152" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B152" s="20" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -1885,41 +1915,41 @@
   <sheetData>
     <row r="1" spans="2:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B1" s="21" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C4" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C5" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -1954,41 +1984,41 @@
   <sheetData>
     <row r="1" spans="2:11" s="21" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B1" s="21" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="2:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B2" s="20" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="2:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B3" s="20" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="2:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B4" s="20" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="2:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="20" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
@@ -2022,97 +2052,97 @@
   <sheetData>
     <row r="1" spans="2:3" s="21" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B1" s="21" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="2:3" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B2" s="20" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="2:3" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B3" s="20" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="2:3" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B4" s="20" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="2:3" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="20" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="2:3" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="20" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="2:3" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B7" s="20" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="2:3" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B8" s="20" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="2:3" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B9" s="20" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="2:3" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10" s="20" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="2:3" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="20" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="2:3" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="20" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/CastReporting.Reporting/TemplatesFiles/3- Excel-components-library.xlsx
+++ b/CastReporting.Reporting/TemplatesFiles/3- Excel-components-library.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="5280" windowHeight="7995" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="5280" windowHeight="7995" firstSheet="3" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="1 - Information" sheetId="6" r:id="rId1"/>
@@ -17,6 +17,7 @@
     <sheet name="3 - Table Block - HF" sheetId="10" r:id="rId3"/>
     <sheet name="3 - Table Block - AFP" sheetId="9" r:id="rId4"/>
     <sheet name="3 - Table Block - Violations" sheetId="11" r:id="rId5"/>
+    <sheet name="3-TableBlock-TableMetricIdCol" sheetId="12" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="AFP_LIST_TOTAL" comment="TABLE;AFP;TYPE=TOTAL" localSheetId="0">'1 - Information'!$C$20:$F$23</definedName>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="159">
   <si>
     <t>RepGen:TEXT;APPLICATION_NAME</t>
   </si>
@@ -477,6 +478,39 @@
   </si>
   <si>
     <t>RepGen:TEXT;RULE_TOTAL_CHECKS;RULID=7126,SNAPSHOT=PREVIOUS</t>
+  </si>
+  <si>
+    <t>3.4. - TABLE_METRIC_ID_COL</t>
+  </si>
+  <si>
+    <t>* Block Name = TABLE_METRIC_ID_COL</t>
+  </si>
+  <si>
+    <t>* Options :</t>
+  </si>
+  <si>
+    <t>- QID : list of Quality indicators (BC or TC or RULE) separated by |</t>
+  </si>
+  <si>
+    <t>- SID : list of Sizing measures separated by |</t>
+  </si>
+  <si>
+    <t>- BID : list of Background facts separated by |</t>
+  </si>
+  <si>
+    <t>- LEVEL : can be APPLICATION or MODULES or TECHNOLOGIES (by default APPLICATION if option not present)</t>
+  </si>
+  <si>
+    <t>- VARIATION = VALUE or PERCENT or BOTH (PERCENT by default)</t>
+  </si>
+  <si>
+    <t>- SNAPSHOT=CURRENT (only CURRENT SNAPSHOT) or PREVIOUS (only PREVIOUS SNAPSHOT) or BOTH (CURRENT and PREVIOUS SNAPSHOT, default option)</t>
+  </si>
+  <si>
+    <t>- HEADER=SHORT, SHORT name is taken if exists, name otherwise</t>
+  </si>
+  <si>
+    <t>RepGen:TABLE;TABLE_METRIC_ID_COL;QID=60017|60014,SID=10151|67010,BID=66061,LEVEL=APPLICATION,SNAPSHOT=BOTH,VARIATION=BOTH,HEADER=SHORT</t>
   </si>
 </sst>
 </file>
@@ -1242,7 +1276,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:B152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
+    <sheetView topLeftCell="A72" workbookViewId="0">
       <selection activeCell="B96" sqref="B96"/>
     </sheetView>
   </sheetViews>
@@ -2042,7 +2076,7 @@
   <dimension ref="B1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B1" sqref="B1:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2148,4 +2182,78 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:B12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B1" s="21" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2" s="20" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B3" s="20" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B4" s="25" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B5" s="25" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B6" s="25" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B7" s="25" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B8" s="25" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B9" s="25" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B10" s="25" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B11" s="20"/>
+    </row>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B12" s="20" t="s">
+        <v>158</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/CastReporting.Reporting/TemplatesFiles/3- Excel-components-library.xlsx
+++ b/CastReporting.Reporting/TemplatesFiles/3- Excel-components-library.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="5280" windowHeight="7995" firstSheet="3" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="5280" windowHeight="7995" firstSheet="4" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="1 - Information" sheetId="6" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="3 - Table Block - AFP" sheetId="9" r:id="rId4"/>
     <sheet name="3 - Table Block - Violations" sheetId="11" r:id="rId5"/>
     <sheet name="3-TableBlock-TableMetricIdCol" sheetId="12" r:id="rId6"/>
+    <sheet name="3-TableBlock-TableMetricIdRow" sheetId="13" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="AFP_LIST_TOTAL" comment="TABLE;AFP;TYPE=TOTAL" localSheetId="0">'1 - Information'!$C$20:$F$23</definedName>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="162">
   <si>
     <t>RepGen:TEXT;APPLICATION_NAME</t>
   </si>
@@ -511,6 +512,15 @@
   </si>
   <si>
     <t>RepGen:TABLE;TABLE_METRIC_ID_COL;QID=60017|60014,SID=10151|67010,BID=66061,LEVEL=APPLICATION,SNAPSHOT=BOTH,VARIATION=BOTH,HEADER=SHORT</t>
+  </si>
+  <si>
+    <t>3.5. - TABLE_METRIC_ID_ROW</t>
+  </si>
+  <si>
+    <t>* Block Name = TABLE_METRIC_ID_ROW</t>
+  </si>
+  <si>
+    <t>RepGen:TABLE;TABLE_METRIC_ID_ROW;QID=60017|60014,SID=10151|67010,BID=66061,LEVEL=APPLICATION,SNAPSHOT=BOTH,VARIATION=BOTH,HEADER=SHORT</t>
   </si>
 </sst>
 </file>
@@ -2188,6 +2198,80 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:B12"/>
   <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B1" s="21" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2" s="20" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B3" s="20" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B4" s="25" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B5" s="25" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B6" s="25" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B7" s="25" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B8" s="25" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B9" s="25" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B10" s="25" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B11" s="20"/>
+    </row>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B12" s="20" t="s">
+        <v>158</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:B12"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
@@ -2196,12 +2280,12 @@
   <sheetData>
     <row r="1" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B1" s="21" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
     </row>
     <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" s="20" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.25">
@@ -2249,7 +2333,7 @@
     </row>
     <row r="12" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B12" s="20" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>

--- a/CastReporting.Reporting/TemplatesFiles/3- Excel-components-library.xlsx
+++ b/CastReporting.Reporting/TemplatesFiles/3- Excel-components-library.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="5280" windowHeight="7995" firstSheet="4" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="5280" windowHeight="7995" firstSheet="6" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="1 - Information" sheetId="6" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="3 - Table Block - Violations" sheetId="11" r:id="rId5"/>
     <sheet name="3-TableBlock-TableMetricIdCol" sheetId="12" r:id="rId6"/>
     <sheet name="3-TableBlock-TableMetricIdRow" sheetId="13" r:id="rId7"/>
+    <sheet name="3-TableBlock-TableViolations" sheetId="14" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="AFP_LIST_TOTAL" comment="TABLE;AFP;TYPE=TOTAL" localSheetId="0">'1 - Information'!$C$20:$F$23</definedName>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="167">
   <si>
     <t>RepGen:TEXT;APPLICATION_NAME</t>
   </si>
@@ -508,9 +509,6 @@
     <t>- SNAPSHOT=CURRENT (only CURRENT SNAPSHOT) or PREVIOUS (only PREVIOUS SNAPSHOT) or BOTH (CURRENT and PREVIOUS SNAPSHOT, default option)</t>
   </si>
   <si>
-    <t>- HEADER=SHORT, SHORT name is taken if exists, name otherwise</t>
-  </si>
-  <si>
     <t>RepGen:TABLE;TABLE_METRIC_ID_COL;QID=60017|60014,SID=10151|67010,BID=66061,LEVEL=APPLICATION,SNAPSHOT=BOTH,VARIATION=BOTH,HEADER=SHORT</t>
   </si>
   <si>
@@ -521,6 +519,24 @@
   </si>
   <si>
     <t>RepGen:TABLE;TABLE_METRIC_ID_ROW;QID=60017|60014,SID=10151|67010,BID=66061,LEVEL=APPLICATION,SNAPSHOT=BOTH,VARIATION=BOTH,HEADER=SHORT</t>
+  </si>
+  <si>
+    <t>* Block Name = TABLE_VIOLATIONS</t>
+  </si>
+  <si>
+    <t>- ID : list of Quality indicators (BC or TC or RULE) separated by |</t>
+  </si>
+  <si>
+    <t>- HEADER=true/1 or false/0, short name is taken if true and exists, name otherwise (default)</t>
+  </si>
+  <si>
+    <t>- CRITICAL=true/1 or false/0 (true by default critical violations are counted, otherwise all violations</t>
+  </si>
+  <si>
+    <t>- DELTA=true/1 or false/0 (true by default, display the added and removed values, otherwise not)</t>
+  </si>
+  <si>
+    <t>RepGen:TABLE;TABLE_VIOLATIONS;ID=60014|61024|7156,LEVEL=APPLICATION,SNAPSHOT=BOTH,CRITICAL=1, DELTA =1</t>
   </si>
 </sst>
 </file>
@@ -2199,7 +2215,7 @@
   <dimension ref="B1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2251,7 +2267,7 @@
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B10" s="25" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
     </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.25">
@@ -2259,7 +2275,7 @@
     </row>
     <row r="12" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B12" s="20" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -2272,20 +2288,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B1" s="21" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" s="20" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.25">
@@ -2325,7 +2341,7 @@
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B10" s="25" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
     </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.25">
@@ -2333,7 +2349,76 @@
     </row>
     <row r="12" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B12" s="20" t="s">
+        <v>160</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:B11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B1" s="21" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2" s="20" t="s">
         <v>161</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B3" s="20" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B4" s="25" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B5" s="25" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B6" s="25" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B7" s="25" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B8" s="25" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B9" s="25" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B10" s="20"/>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B11" s="20" t="s">
+        <v>166</v>
       </c>
     </row>
   </sheetData>

--- a/CastReporting.Reporting/TemplatesFiles/3- Excel-components-library.xlsx
+++ b/CastReporting.Reporting/TemplatesFiles/3- Excel-components-library.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="168">
   <si>
     <t>RepGen:TEXT;APPLICATION_NAME</t>
   </si>
@@ -537,6 +537,9 @@
   </si>
   <si>
     <t>RepGen:TABLE;TABLE_VIOLATIONS;ID=60014|61024|7156,LEVEL=APPLICATION,SNAPSHOT=BOTH,CRITICAL=1, DELTA =1</t>
+  </si>
+  <si>
+    <t>3.6. - TABLE_VIOLATIONS</t>
   </si>
 </sst>
 </file>
@@ -2363,14 +2366,14 @@
   <dimension ref="B1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B1" s="21" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
     </row>
     <row r="2" spans="2:2" x14ac:dyDescent="0.25">

--- a/CastReporting.Reporting/TemplatesFiles/3- Excel-components-library.xlsx
+++ b/CastReporting.Reporting/TemplatesFiles/3- Excel-components-library.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17766"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="5280" windowHeight="7995" firstSheet="6" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="5280" windowHeight="7995" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="1 - Information" sheetId="6" r:id="rId1"/>
@@ -17,9 +17,6 @@
     <sheet name="3 - Table Block - HF" sheetId="10" r:id="rId3"/>
     <sheet name="3 - Table Block - AFP" sheetId="9" r:id="rId4"/>
     <sheet name="3 - Table Block - Violations" sheetId="11" r:id="rId5"/>
-    <sheet name="3-TableBlock-TableMetricIdCol" sheetId="12" r:id="rId6"/>
-    <sheet name="3-TableBlock-TableMetricIdRow" sheetId="13" r:id="rId7"/>
-    <sheet name="3-TableBlock-TableViolations" sheetId="14" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="AFP_LIST_TOTAL" comment="TABLE;AFP;TYPE=TOTAL" localSheetId="0">'1 - Information'!$C$20:$F$23</definedName>
@@ -35,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="148">
   <si>
     <t>RepGen:TEXT;APPLICATION_NAME</t>
   </si>
@@ -480,72 +477,12 @@
   </si>
   <si>
     <t>RepGen:TEXT;RULE_TOTAL_CHECKS;RULID=7126,SNAPSHOT=PREVIOUS</t>
-  </si>
-  <si>
-    <t>3.4. - TABLE_METRIC_ID_COL</t>
-  </si>
-  <si>
-    <t>* Block Name = TABLE_METRIC_ID_COL</t>
-  </si>
-  <si>
-    <t>* Options :</t>
-  </si>
-  <si>
-    <t>- QID : list of Quality indicators (BC or TC or RULE) separated by |</t>
-  </si>
-  <si>
-    <t>- SID : list of Sizing measures separated by |</t>
-  </si>
-  <si>
-    <t>- BID : list of Background facts separated by |</t>
-  </si>
-  <si>
-    <t>- LEVEL : can be APPLICATION or MODULES or TECHNOLOGIES (by default APPLICATION if option not present)</t>
-  </si>
-  <si>
-    <t>- VARIATION = VALUE or PERCENT or BOTH (PERCENT by default)</t>
-  </si>
-  <si>
-    <t>- SNAPSHOT=CURRENT (only CURRENT SNAPSHOT) or PREVIOUS (only PREVIOUS SNAPSHOT) or BOTH (CURRENT and PREVIOUS SNAPSHOT, default option)</t>
-  </si>
-  <si>
-    <t>RepGen:TABLE;TABLE_METRIC_ID_COL;QID=60017|60014,SID=10151|67010,BID=66061,LEVEL=APPLICATION,SNAPSHOT=BOTH,VARIATION=BOTH,HEADER=SHORT</t>
-  </si>
-  <si>
-    <t>3.5. - TABLE_METRIC_ID_ROW</t>
-  </si>
-  <si>
-    <t>* Block Name = TABLE_METRIC_ID_ROW</t>
-  </si>
-  <si>
-    <t>RepGen:TABLE;TABLE_METRIC_ID_ROW;QID=60017|60014,SID=10151|67010,BID=66061,LEVEL=APPLICATION,SNAPSHOT=BOTH,VARIATION=BOTH,HEADER=SHORT</t>
-  </si>
-  <si>
-    <t>* Block Name = TABLE_VIOLATIONS</t>
-  </si>
-  <si>
-    <t>- ID : list of Quality indicators (BC or TC or RULE) separated by |</t>
-  </si>
-  <si>
-    <t>- HEADER=true/1 or false/0, short name is taken if true and exists, name otherwise (default)</t>
-  </si>
-  <si>
-    <t>- CRITICAL=true/1 or false/0 (true by default critical violations are counted, otherwise all violations</t>
-  </si>
-  <si>
-    <t>- DELTA=true/1 or false/0 (true by default, display the added and removed values, otherwise not)</t>
-  </si>
-  <si>
-    <t>RepGen:TABLE;TABLE_VIOLATIONS;ID=60014|61024|7156,LEVEL=APPLICATION,SNAPSHOT=BOTH,CRITICAL=1, DELTA =1</t>
-  </si>
-  <si>
-    <t>3.6. - TABLE_VIOLATIONS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0&quot; LoC&quot;"/>
   </numFmts>
@@ -842,7 +779,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 7" descr="CAST_white_90"/>
+        <xdr:cNvPr id="2" name="Picture 7" descr="CAST_white_90">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2104,8 +2047,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:C13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2211,221 +2154,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:B12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B1" s="21" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B2" s="20" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B3" s="20" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B4" s="25" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B5" s="25" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B6" s="25" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B7" s="25" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B8" s="25" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B9" s="25" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B10" s="25" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B11" s="20"/>
-    </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B12" s="20" t="s">
-        <v>157</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:B12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B1" s="21" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B2" s="20" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B3" s="20" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B4" s="25" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B5" s="25" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B6" s="25" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B7" s="25" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B8" s="25" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B9" s="25" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B10" s="25" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B11" s="20"/>
-    </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B12" s="20" t="s">
-        <v>160</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:B11"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B1" s="21" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B2" s="20" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B3" s="20" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B4" s="25" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B5" s="25" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B6" s="25" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B7" s="25" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B8" s="25" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B9" s="25" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B10" s="20"/>
-    </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B11" s="20" t="s">
-        <v>166</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/CastReporting.Reporting/TemplatesFiles/3- Excel-components-library.xlsx
+++ b/CastReporting.Reporting/TemplatesFiles/3- Excel-components-library.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17766"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18229"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="5280" windowHeight="7995" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="5280" windowHeight="7995" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="1 - Information" sheetId="6" r:id="rId1"/>
@@ -17,6 +17,7 @@
     <sheet name="3 - Table Block - HF" sheetId="10" r:id="rId3"/>
     <sheet name="3 - Table Block - AFP" sheetId="9" r:id="rId4"/>
     <sheet name="3 - Table Block - Violations" sheetId="11" r:id="rId5"/>
+    <sheet name="3 - List of violations for rule" sheetId="12" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="AFP_LIST_TOTAL" comment="TABLE;AFP;TYPE=TOTAL" localSheetId="0">'1 - Information'!$C$20:$F$23</definedName>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="158">
   <si>
     <t>RepGen:TEXT;APPLICATION_NAME</t>
   </si>
@@ -477,6 +478,36 @@
   </si>
   <si>
     <t>RepGen:TEXT;RULE_TOTAL_CHECKS;RULID=7126,SNAPSHOT=PREVIOUS</t>
+  </si>
+  <si>
+    <t>3.4. - List of violations for a rule</t>
+  </si>
+  <si>
+    <t xml:space="preserve">* Block Name = QUALITY_RULE_VIOLATIONS </t>
+  </si>
+  <si>
+    <t>If Previous snapshot is selected, but there is no previous snapshot, the results from the current snapshot will be displayed.</t>
+  </si>
+  <si>
+    <t>If there is no previous snapshot, column Status is not displayed</t>
+  </si>
+  <si>
+    <t>* BCID= The Id of the business criterion. If this id correspond to efficiency (60014), robustness (60013), or security (60016), the propagatedRiskIndex is displayed. By default, BCID = 60013</t>
+  </si>
+  <si>
+    <t>* ID= The Id of the quality rule for which you want to display the list of violations</t>
+  </si>
+  <si>
+    <t>* COUNT=N where N indicates the top N number ; default value = 10</t>
+  </si>
+  <si>
+    <t>* NAME=FULL|SHORT to display short name or full name of objects (full name by default)</t>
+  </si>
+  <si>
+    <t>* SNAPSHOT=CURRENT|PREVIOUS to select from which snapshot we take results; default is Current</t>
+  </si>
+  <si>
+    <t>RepGen:TABLE;QUALITY_RULE_VIOLATIONS;BCID=60013,ID=7424,COUNT=50</t>
   </si>
 </sst>
 </file>
@@ -486,7 +517,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0&quot; LoC&quot;"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -591,6 +622,21 @@
       <name val="Corbel"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -655,7 +701,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -727,6 +773,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Accent4" xfId="3" builtinId="41"/>
@@ -2047,8 +2095,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2154,4 +2202,103 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:D12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="54.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B1" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+    </row>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+    </row>
+    <row r="3" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B3" s="32" t="s">
+        <v>152</v>
+      </c>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+    </row>
+    <row r="4" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B4" s="32" t="s">
+        <v>153</v>
+      </c>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+    </row>
+    <row r="5" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B5" s="32" t="s">
+        <v>154</v>
+      </c>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+    </row>
+    <row r="6" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B6" s="32" t="s">
+        <v>155</v>
+      </c>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+    </row>
+    <row r="7" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B7" s="32" t="s">
+        <v>156</v>
+      </c>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+    </row>
+    <row r="8" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B8" s="31" t="s">
+        <v>150</v>
+      </c>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+    </row>
+    <row r="9" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B9" s="31" t="s">
+        <v>151</v>
+      </c>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/CastReporting.Reporting/TemplatesFiles/3- Excel-components-library.xlsx
+++ b/CastReporting.Reporting/TemplatesFiles/3- Excel-components-library.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="157">
   <si>
     <t>RepGen:TEXT;APPLICATION_NAME</t>
   </si>
@@ -484,9 +484,6 @@
   </si>
   <si>
     <t xml:space="preserve">* Block Name = QUALITY_RULE_VIOLATIONS </t>
-  </si>
-  <si>
-    <t>If Previous snapshot is selected, but there is no previous snapshot, the results from the current snapshot will be displayed.</t>
   </si>
   <si>
     <t>If there is no previous snapshot, column Status is not displayed</t>
@@ -758,6 +755,8 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
@@ -773,8 +772,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Accent4" xfId="3" builtinId="41"/>
@@ -1181,8 +1178,8 @@
     <row r="1" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D1" s="5"/>
       <c r="E1" s="6"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
     </row>
     <row r="2" spans="2:15" ht="23.25" x14ac:dyDescent="0.25">
       <c r="B2" s="7"/>
@@ -1193,16 +1190,16 @@
       <c r="G2" s="15"/>
     </row>
     <row r="3" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
       <c r="D3" s="3"/>
       <c r="E3" s="9"/>
       <c r="F3" s="1"/>
       <c r="G3" s="3"/>
     </row>
     <row r="4" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
       <c r="D4" s="3"/>
       <c r="E4" s="9"/>
       <c r="F4" s="1"/>
@@ -1250,26 +1247,26 @@
       </c>
     </row>
     <row r="20" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C20" s="30"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="30"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
       <c r="F20" s="11"/>
     </row>
     <row r="21" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
       <c r="F21" s="12"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="28"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="30"/>
     </row>
     <row r="22" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C22" s="26"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="26"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="28"/>
       <c r="F22" s="12"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="28"/>
+      <c r="G22" s="30"/>
+      <c r="H22" s="30"/>
     </row>
     <row r="23" spans="3:8" x14ac:dyDescent="0.25">
       <c r="E23" s="13"/>
@@ -2209,7 +2206,7 @@
   <dimension ref="B1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2232,50 +2229,48 @@
       <c r="D2" s="20"/>
     </row>
     <row r="3" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="32" t="s">
-        <v>152</v>
+      <c r="B3" s="27" t="s">
+        <v>151</v>
       </c>
       <c r="C3" s="20"/>
       <c r="D3" s="20"/>
     </row>
     <row r="4" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B4" s="32" t="s">
-        <v>153</v>
+      <c r="B4" s="27" t="s">
+        <v>152</v>
       </c>
       <c r="C4" s="20"/>
       <c r="D4" s="20"/>
     </row>
     <row r="5" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="32" t="s">
-        <v>154</v>
+      <c r="B5" s="27" t="s">
+        <v>153</v>
       </c>
       <c r="C5" s="20"/>
       <c r="D5" s="20"/>
     </row>
     <row r="6" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="32" t="s">
-        <v>155</v>
+      <c r="B6" s="27" t="s">
+        <v>154</v>
       </c>
       <c r="C6" s="20"/>
       <c r="D6" s="20"/>
     </row>
     <row r="7" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="32" t="s">
-        <v>156</v>
+      <c r="B7" s="27" t="s">
+        <v>155</v>
       </c>
       <c r="C7" s="20"/>
       <c r="D7" s="20"/>
     </row>
     <row r="8" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="31" t="s">
-        <v>150</v>
-      </c>
+      <c r="B8" s="26"/>
       <c r="C8" s="20"/>
       <c r="D8" s="20"/>
     </row>
     <row r="9" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="31" t="s">
-        <v>151</v>
+      <c r="B9" s="26" t="s">
+        <v>150</v>
       </c>
       <c r="C9" s="20"/>
       <c r="D9" s="20"/>
@@ -2287,7 +2282,7 @@
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C11" s="20"/>
       <c r="D11" s="20"/>

--- a/CastReporting.Reporting/TemplatesFiles/3- Excel-components-library.xlsx
+++ b/CastReporting.Reporting/TemplatesFiles/3- Excel-components-library.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18229"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18326"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="5280" windowHeight="7995" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="5280" windowHeight="7995" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1 - Information" sheetId="6" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="3 - Table Block - AFP" sheetId="9" r:id="rId4"/>
     <sheet name="3 - Table Block - Violations" sheetId="11" r:id="rId5"/>
     <sheet name="3 - List of violations for rule" sheetId="12" r:id="rId6"/>
+    <sheet name="3 - Action Plan Violations" sheetId="13" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="AFP_LIST_TOTAL" comment="TABLE;AFP;TYPE=TOTAL" localSheetId="0">'1 - Information'!$C$20:$F$23</definedName>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="162">
   <si>
     <t>RepGen:TEXT;APPLICATION_NAME</t>
   </si>
@@ -505,12 +506,27 @@
   </si>
   <si>
     <t>RepGen:TABLE;QUALITY_RULE_VIOLATIONS;BCID=60013,ID=7424,COUNT=50</t>
+  </si>
+  <si>
+    <t>3.4. - List of violations in action plan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">* Block Name = ACTION_PLAN_VIOLATIONS </t>
+  </si>
+  <si>
+    <t>* COUNT=N|ALL where N indicates the top N number ; default value = 10 (ALL for all violations)</t>
+  </si>
+  <si>
+    <t>* FILTER=ADDED|SOLVED|PENDING|ALL to filter the list by the violation status; default is ALL</t>
+  </si>
+  <si>
+    <t>RepGen:TABLE;ACTION_PLAN_VIOLATIONS;COUNT=10,NAME=SHORT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0&quot; LoC&quot;"/>
   </numFmts>
@@ -775,7 +791,7 @@
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Accent4" xfId="3" builtinId="41"/>
-    <cellStyle name="Header 1" xfId="1"/>
+    <cellStyle name="Header 1" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Output" xfId="2" builtinId="21"/>
@@ -1150,7 +1166,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:O23"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
@@ -1290,7 +1306,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:B152"/>
   <sheetViews>
     <sheetView topLeftCell="A72" workbookViewId="0">
@@ -1955,7 +1971,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2009,7 +2025,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2089,7 +2105,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2202,8 +2218,105 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B1:D12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="54.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B1" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+    </row>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+    </row>
+    <row r="3" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B3" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+    </row>
+    <row r="4" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B4" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+    </row>
+    <row r="5" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B5" s="27" t="s">
+        <v>153</v>
+      </c>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+    </row>
+    <row r="6" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B6" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+    </row>
+    <row r="7" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B7" s="27" t="s">
+        <v>155</v>
+      </c>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+    </row>
+    <row r="8" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B8" s="26"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+    </row>
+    <row r="9" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B9" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>156</v>
+      </c>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10F8858A-750A-4726-A1F9-D59D03327DAC}">
+  <dimension ref="B1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
@@ -2216,62 +2329,57 @@
   <sheetData>
     <row r="1" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B1" s="21" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="C1" s="21"/>
       <c r="D1" s="21"/>
     </row>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B2" s="20" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="C2" s="20"/>
       <c r="D2" s="20"/>
     </row>
     <row r="3" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B3" s="27" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="C3" s="20"/>
       <c r="D3" s="20"/>
     </row>
     <row r="4" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B4" s="27" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C4" s="20"/>
       <c r="D4" s="20"/>
     </row>
     <row r="5" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="27" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="C5" s="20"/>
       <c r="D5" s="20"/>
     </row>
     <row r="6" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="27" t="s">
-        <v>154</v>
-      </c>
+      <c r="B6" s="26"/>
       <c r="C6" s="20"/>
       <c r="D6" s="20"/>
     </row>
-    <row r="7" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="27" t="s">
-        <v>155</v>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>161</v>
       </c>
       <c r="C7" s="20"/>
       <c r="D7" s="20"/>
     </row>
-    <row r="8" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="26"/>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="20"/>
       <c r="C8" s="20"/>
       <c r="D8" s="20"/>
     </row>
-    <row r="9" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="26" t="s">
-        <v>150</v>
-      </c>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C9" s="20"/>
       <c r="D9" s="20"/>
     </row>
@@ -2279,18 +2387,6 @@
       <c r="B10" s="20"/>
       <c r="C10" s="20"/>
       <c r="D10" s="20"/>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>156</v>
-      </c>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="20"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/CastReporting.Reporting/TemplatesFiles/3- Excel-components-library.xlsx
+++ b/CastReporting.Reporting/TemplatesFiles/3- Excel-components-library.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="5280" windowHeight="7995" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="5280" windowHeight="7995" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1 - Information" sheetId="6" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="3 - Table Block - Violations" sheetId="11" r:id="rId5"/>
     <sheet name="3 - List of violations for rule" sheetId="12" r:id="rId6"/>
     <sheet name="3 - Action Plan Violations" sheetId="13" r:id="rId7"/>
+    <sheet name="3 - Critical Violations List" sheetId="14" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="AFP_LIST_TOTAL" comment="TABLE;AFP;TYPE=TOTAL" localSheetId="0">'1 - Information'!$C$20:$F$23</definedName>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="167">
   <si>
     <t>RepGen:TEXT;APPLICATION_NAME</t>
   </si>
@@ -521,6 +522,21 @@
   </si>
   <si>
     <t>RepGen:TABLE;ACTION_PLAN_VIOLATIONS;COUNT=10,NAME=SHORT</t>
+  </si>
+  <si>
+    <t>3.5. - List of critical violations</t>
+  </si>
+  <si>
+    <t>* Block Name = CRITICAL_VIOLATIONS_LIST</t>
+  </si>
+  <si>
+    <t>* BCID=ID1|ID2, by default 60016</t>
+  </si>
+  <si>
+    <t>* FILTER=ADDED|UNCHANGED|ALL to filter the list by the violation status; default is ALL</t>
+  </si>
+  <si>
+    <t>RepGen:TABLE;CRITICAL_VIOLATIONS_LIST;BCID=60016,COUNT=ALL</t>
   </si>
 </sst>
 </file>
@@ -2318,8 +2334,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10F8858A-750A-4726-A1F9-D59D03327DAC}">
   <dimension ref="B1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2392,4 +2408,57 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F955B29-1E36-48CE-AC50-446125F25D1B}">
+  <dimension ref="B1:B8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="92.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B1" s="21" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2" s="20" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B3" s="20" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B4" s="27" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B5" s="27" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B6" s="27" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>166</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/CastReporting.Reporting/TemplatesFiles/3- Excel-components-library.xlsx
+++ b/CastReporting.Reporting/TemplatesFiles/3- Excel-components-library.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18730"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="169">
   <si>
     <t>RepGen:TEXT;APPLICATION_NAME</t>
   </si>
@@ -524,19 +524,25 @@
     <t>RepGen:TABLE;ACTION_PLAN_VIOLATIONS;COUNT=10,NAME=SHORT</t>
   </si>
   <si>
-    <t>3.5. - List of critical violations</t>
-  </si>
-  <si>
-    <t>* Block Name = CRITICAL_VIOLATIONS_LIST</t>
-  </si>
-  <si>
     <t>* BCID=ID1|ID2, by default 60016</t>
   </si>
   <si>
-    <t>* FILTER=ADDED|UNCHANGED|ALL to filter the list by the violation status; default is ALL</t>
-  </si>
-  <si>
-    <t>RepGen:TABLE;CRITICAL_VIOLATIONS_LIST;BCID=60016,COUNT=ALL</t>
+    <t>3.5. - List of violations by BC</t>
+  </si>
+  <si>
+    <t>* Block Name = VIOLATIONS_LIST</t>
+  </si>
+  <si>
+    <t>* VIOLATIONS=CRITICAL|ALL by default, only CRITICAL violations are listed</t>
+  </si>
+  <si>
+    <t>* MODULE=ModuleName, parameter used to restrict the list for one module, by default violation are listed for the application</t>
+  </si>
+  <si>
+    <t>RepGen:TABLE;VIOLATIONS_LIST;BCID=60016,COUNT=ALL</t>
+  </si>
+  <si>
+    <t>* FILTER=ADDED|UNCHANGED|UPDATED|ALL to filter the list by the violation status; default is ALL</t>
   </si>
 </sst>
 </file>
@@ -2412,10 +2418,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F955B29-1E36-48CE-AC50-446125F25D1B}">
-  <dimension ref="B1:B8"/>
+  <dimension ref="B1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2425,17 +2431,17 @@
   <sheetData>
     <row r="1" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B1" s="21" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" s="20" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" s="20" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -2450,12 +2456,22 @@
     </row>
     <row r="6" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="27" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B7" s="27" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+    <row r="8" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B8" s="27" t="s">
         <v>166</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>167</v>
       </c>
     </row>
   </sheetData>

--- a/CastReporting.Reporting/TemplatesFiles/3- Excel-components-library.xlsx
+++ b/CastReporting.Reporting/TemplatesFiles/3- Excel-components-library.xlsx
@@ -30,12 +30,12 @@
     <definedName name="TABLE_4" comment="TEXT;LAST_SNAPSHOT_DATE" localSheetId="0">'1 - Information'!$D$4:$D$4</definedName>
     <definedName name="TABLE_5" comment="TEXT;TODAY_DATE" localSheetId="0">'1 - Information'!$F$1:$G$1</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="170">
   <si>
     <t>RepGen:TEXT;APPLICATION_NAME</t>
   </si>
@@ -543,6 +543,9 @@
   </si>
   <si>
     <t>* FILTER=ADDED|UNCHANGED|UPDATED|ALL to filter the list by the violation status; default is ALL</t>
+  </si>
+  <si>
+    <t>* TECHNOLOGIES=techno1|techno2, parameter used to restrict the list of violations, by default all TECHNOLOGIES</t>
   </si>
 </sst>
 </file>
@@ -2418,10 +2421,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F955B29-1E36-48CE-AC50-446125F25D1B}">
-  <dimension ref="B1:B10"/>
+  <dimension ref="B1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2469,8 +2472,13 @@
         <v>166</v>
       </c>
     </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
         <v>167</v>
       </c>
     </row>

--- a/CastReporting.Reporting/TemplatesFiles/3- Excel-components-library.xlsx
+++ b/CastReporting.Reporting/TemplatesFiles/3- Excel-components-library.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18827"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="5280" windowHeight="7995" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="5280" windowHeight="7995" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1 - Information" sheetId="6" r:id="rId1"/>
@@ -494,9 +494,6 @@
     <t>* BCID= The Id of the business criterion. If this id correspond to efficiency (60014), robustness (60013), or security (60016), the propagatedRiskIndex is displayed. By default, BCID = 60013</t>
   </si>
   <si>
-    <t>* ID= The Id of the quality rule for which you want to display the list of violations</t>
-  </si>
-  <si>
     <t>* COUNT=N where N indicates the top N number ; default value = 10</t>
   </si>
   <si>
@@ -524,9 +521,6 @@
     <t>RepGen:TABLE;ACTION_PLAN_VIOLATIONS;COUNT=10,NAME=SHORT</t>
   </si>
   <si>
-    <t>* BCID=ID1|ID2, by default 60016</t>
-  </si>
-  <si>
     <t>3.5. - List of violations by BC</t>
   </si>
   <si>
@@ -546,6 +540,12 @@
   </si>
   <si>
     <t>* TECHNOLOGIES=techno1|techno2, parameter used to restrict the list of violations, by default all TECHNOLOGIES</t>
+  </si>
+  <si>
+    <t>* BCID= the IDs of Business Criterion separated by | : ID1|ID2, by default 60016</t>
+  </si>
+  <si>
+    <t>* ID= The Id of the quality rule for which you want to display the list of violations, By default, ID = 7788 (Avoid empty catch block)</t>
   </si>
 </sst>
 </file>
@@ -2246,8 +2246,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2278,28 +2278,28 @@
     </row>
     <row r="4" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B4" s="27" t="s">
-        <v>152</v>
+        <v>169</v>
       </c>
       <c r="C4" s="20"/>
       <c r="D4" s="20"/>
     </row>
     <row r="5" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="27" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C5" s="20"/>
       <c r="D5" s="20"/>
     </row>
     <row r="6" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="27" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C6" s="20"/>
       <c r="D6" s="20"/>
     </row>
     <row r="7" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="27" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C7" s="20"/>
       <c r="D7" s="20"/>
@@ -2323,7 +2323,7 @@
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C11" s="20"/>
       <c r="D11" s="20"/>
@@ -2354,35 +2354,35 @@
   <sheetData>
     <row r="1" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B1" s="21" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C1" s="21"/>
       <c r="D1" s="21"/>
     </row>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B2" s="20" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C2" s="20"/>
       <c r="D2" s="20"/>
     </row>
     <row r="3" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B3" s="27" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C3" s="20"/>
       <c r="D3" s="20"/>
     </row>
     <row r="4" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B4" s="27" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C4" s="20"/>
       <c r="D4" s="20"/>
     </row>
     <row r="5" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="27" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C5" s="20"/>
       <c r="D5" s="20"/>
@@ -2394,7 +2394,7 @@
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C7" s="20"/>
       <c r="D7" s="20"/>
@@ -2423,8 +2423,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F955B29-1E36-48CE-AC50-446125F25D1B}">
   <dimension ref="B1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2434,52 +2434,52 @@
   <sheetData>
     <row r="1" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B1" s="21" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" s="20" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" s="20" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
     </row>
     <row r="4" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B4" s="27" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="5" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="27" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="6" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="27" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="7" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="27" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="8" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="27" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>

--- a/CastReporting.Reporting/TemplatesFiles/3- Excel-components-library.xlsx
+++ b/CastReporting.Reporting/TemplatesFiles/3- Excel-components-library.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19001"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -496,9 +496,6 @@
     <t>* SNAPSHOT=CURRENT|PREVIOUS to select from which snapshot we take results; default is Current</t>
   </si>
   <si>
-    <t>RepGen:TABLE;QUALITY_RULE_VIOLATIONS;BCID=60013,ID=7424,COUNT=50</t>
-  </si>
-  <si>
     <t>3.4. - List of violations in action plan</t>
   </si>
   <si>
@@ -551,10 +548,13 @@
     <t>* Note : This component is only relevant on an engineering database. It is not relevant on an analytics database.</t>
   </si>
   <si>
-    <t>Its options and behavior are the same that APPLICATION_METRIC text block</t>
+    <t>This text block has been replaced by the following APPLICATION_METRIC, it has been kept for backward compatibility.</t>
   </si>
   <si>
-    <t>This text block has been replaced by the following APPLICATION_METRIC, it has been kept for backward compatibility.</t>
+    <t>RepGen:TABLE;QUALITY_RULE_VIOLATIONS;BCID=60013,ID=7788,COUNT=50</t>
+  </si>
+  <si>
+    <t>Its options and behavior are the same than APPLICATION_METRIC text block</t>
   </si>
 </sst>
 </file>
@@ -1343,8 +1343,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:B150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="B65" sqref="B65"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="B62" sqref="B62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1400,7 +1400,7 @@
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B10" s="22" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.25">
@@ -1440,7 +1440,7 @@
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" s="20" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.25">
@@ -1600,12 +1600,12 @@
     </row>
     <row r="60" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B60" s="20" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="61" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B61" s="25" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="63" spans="2:2" s="21" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -2110,7 +2110,7 @@
     <row r="6" spans="2:11" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="2:11" s="20" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="26" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="8" spans="2:11" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -2254,7 +2254,7 @@
   <dimension ref="B1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2285,7 +2285,7 @@
     </row>
     <row r="4" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B4" s="27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C4" s="20"/>
       <c r="D4" s="20"/>
@@ -2325,7 +2325,7 @@
     </row>
     <row r="10" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="26" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C10" s="20"/>
       <c r="D10" s="20"/>
@@ -2337,7 +2337,7 @@
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="C12" s="20"/>
       <c r="D12" s="20"/>
@@ -2368,21 +2368,21 @@
   <sheetData>
     <row r="1" spans="1:16384" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B1" s="21" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C1" s="21"/>
       <c r="D1" s="21"/>
     </row>
     <row r="2" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="B2" s="20" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C2" s="20"/>
       <c r="D2" s="20"/>
     </row>
     <row r="3" spans="1:16384" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B3" s="27" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C3" s="20"/>
       <c r="D3" s="20"/>
@@ -2396,7 +2396,7 @@
     </row>
     <row r="5" spans="1:16384" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="27" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C5" s="20"/>
       <c r="D5" s="20"/>
@@ -18789,7 +18789,7 @@
     </row>
     <row r="7" spans="1:16384" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="26" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C7" s="20"/>
       <c r="D7" s="20"/>
@@ -18801,7 +18801,7 @@
     </row>
     <row r="9" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C9" s="20"/>
       <c r="D9" s="20"/>
@@ -18841,22 +18841,22 @@
   <sheetData>
     <row r="1" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B1" s="21" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" s="20" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" s="20" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="4" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B4" s="27" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="5" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -18866,32 +18866,32 @@
     </row>
     <row r="6" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="27" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="7" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="27" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="8" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="27" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="11" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B11" s="26" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="13" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>

--- a/CastReporting.Reporting/TemplatesFiles/3- Excel-components-library.xlsx
+++ b/CastReporting.Reporting/TemplatesFiles/3- Excel-components-library.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20827"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\ReportGenerator\CastReporting.Reporting\TemplatesFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC8CCFF3-7484-4391-A346-7B0ABFE1D6BD}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="5280" windowHeight="7995" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="5280" windowHeight="7995" firstSheet="1" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1 - Information" sheetId="6" r:id="rId1"/>
@@ -20,6 +21,7 @@
     <sheet name="3 - List of violations for rule" sheetId="12" r:id="rId6"/>
     <sheet name="3 - Action Plan Violations" sheetId="13" r:id="rId7"/>
     <sheet name="3 - Critical Violations List" sheetId="14" r:id="rId8"/>
+    <sheet name="3 - List of violations statist " sheetId="15" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="AFP_LIST_TOTAL" comment="TABLE;AFP;TYPE=TOTAL" localSheetId="0">'1 - Information'!$C$20:$F$23</definedName>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="183">
   <si>
     <t>RepGen:TEXT;APPLICATION_NAME</t>
   </si>
@@ -496,9 +498,6 @@
     <t>* SNAPSHOT=CURRENT|PREVIOUS to select from which snapshot we take results; default is Current</t>
   </si>
   <si>
-    <t>3.4. - List of violations in action plan</t>
-  </si>
-  <si>
     <t xml:space="preserve">* Block Name = ACTION_PLAN_VIOLATIONS </t>
   </si>
   <si>
@@ -509,9 +508,6 @@
   </si>
   <si>
     <t>RepGen:TABLE;ACTION_PLAN_VIOLATIONS;COUNT=10,NAME=SHORT</t>
-  </si>
-  <si>
-    <t>3.5. - List of violations by BC</t>
   </si>
   <si>
     <t>* Block Name = VIOLATIONS_LIST</t>
@@ -555,6 +551,42 @@
   </si>
   <si>
     <t>Its options and behavior are the same than APPLICATION_METRIC text block</t>
+  </si>
+  <si>
+    <t>3.5. - List of violations in action plan</t>
+  </si>
+  <si>
+    <t>3.6. - List of violations by BC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7. - List of violations statistics by BC, TC or Standard Quality Tag   </t>
+  </si>
+  <si>
+    <t>* Block Name = RULES_LIST_STATISTICS_RATIO</t>
+  </si>
+  <si>
+    <t>* METRICS=List of metrics id (BC, TC or QR) or quality standards tags separated by ‘|’.</t>
+  </si>
+  <si>
+    <t>* CRITICAL=true : add this option if you have selected a BC or a TC and want only critical rules to be selected (by default it is false). This option has no effect on selection by QR or quality standard tag.</t>
+  </si>
+  <si>
+    <t>* COMPLIANCE=true : add this option if you want to display the compliance score column ; by default this column is not displayed.</t>
+  </si>
+  <si>
+    <t>* SORTED=COMPLIANCE : add this option if you want to sort the data by compliance score, from worse to better ; by default the sort of data is from the max number of total violations to the min.</t>
+  </si>
+  <si>
+    <t>Notes:</t>
+  </si>
+  <si>
+    <t>To use the quality standard tags selection, the Quality Standards Mapping extension should be installed on the central where the application resides.</t>
+  </si>
+  <si>
+    <t>When you select the metric id for a BC or TC, all the QRs belonging to this BC or TC is added for displaying violations</t>
+  </si>
+  <si>
+    <t>RepGen:TABLE;RULES_LIST_STATISTICS_RATIO;METRICS=CISQ-Security,COMPLIANCE=true</t>
   </si>
 </sst>
 </file>
@@ -1343,7 +1375,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:B150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+    <sheetView topLeftCell="A52" workbookViewId="0">
       <selection activeCell="B62" sqref="B62"/>
     </sheetView>
   </sheetViews>
@@ -1400,7 +1432,7 @@
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B10" s="22" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.25">
@@ -1440,7 +1472,7 @@
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" s="20" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.25">
@@ -1600,12 +1632,12 @@
     </row>
     <row r="60" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B60" s="20" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="61" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B61" s="25" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="63" spans="2:2" s="21" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -2110,7 +2142,7 @@
     <row r="6" spans="2:11" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="2:11" s="20" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="26" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="8" spans="2:11" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -2285,7 +2317,7 @@
     </row>
     <row r="4" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B4" s="27" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C4" s="20"/>
       <c r="D4" s="20"/>
@@ -2325,7 +2357,7 @@
     </row>
     <row r="10" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="26" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C10" s="20"/>
       <c r="D10" s="20"/>
@@ -2337,7 +2369,7 @@
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C12" s="20"/>
       <c r="D12" s="20"/>
@@ -2358,7 +2390,7 @@
   <dimension ref="A1:XFD12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2368,21 +2400,21 @@
   <sheetData>
     <row r="1" spans="1:16384" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B1" s="21" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="C1" s="21"/>
       <c r="D1" s="21"/>
     </row>
     <row r="2" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="B2" s="20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C2" s="20"/>
       <c r="D2" s="20"/>
     </row>
     <row r="3" spans="1:16384" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B3" s="27" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C3" s="20"/>
       <c r="D3" s="20"/>
@@ -2396,7 +2428,7 @@
     </row>
     <row r="5" spans="1:16384" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="27" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C5" s="20"/>
       <c r="D5" s="20"/>
@@ -18789,7 +18821,7 @@
     </row>
     <row r="7" spans="1:16384" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="26" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C7" s="20"/>
       <c r="D7" s="20"/>
@@ -18801,7 +18833,7 @@
     </row>
     <row r="9" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C9" s="20"/>
       <c r="D9" s="20"/>
@@ -18831,7 +18863,7 @@
   <dimension ref="B1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18841,22 +18873,22 @@
   <sheetData>
     <row r="1" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B1" s="21" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
     </row>
     <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" s="20" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" s="20" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="4" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B4" s="27" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -18866,35 +18898,110 @@
     </row>
     <row r="6" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="27" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="7" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="27" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="8" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="27" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="11" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B11" s="26" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="13" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{976C8EF6-9462-404B-9CE3-9B69F0A9930C}">
+  <dimension ref="B1:B12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="121.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B1" s="21" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2" s="20" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B3" s="20" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B4" s="27" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B5" s="27" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B6" s="27" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B7" s="27"/>
+    </row>
+    <row r="8" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B8" s="27" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B9" s="27" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B10" s="27" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B11" s="26"/>
+    </row>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>182</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/CastReporting.Reporting/TemplatesFiles/3- Excel-components-library.xlsx
+++ b/CastReporting.Reporting/TemplatesFiles/3- Excel-components-library.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21001"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\ReportGenerator\CastReporting.Reporting\TemplatesFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC8CCFF3-7484-4391-A346-7B0ABFE1D6BD}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3731CF7-8571-42AA-84EA-3F82230AC999}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="5280" windowHeight="7995" firstSheet="1" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="5280" windowHeight="7995" firstSheet="3" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1 - Information" sheetId="6" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="3 - Action Plan Violations" sheetId="13" r:id="rId7"/>
     <sheet name="3 - Critical Violations List" sheetId="14" r:id="rId8"/>
     <sheet name="3 - List of violations statist " sheetId="15" r:id="rId9"/>
+    <sheet name="3 - Evolution of standards" sheetId="16" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="AFP_LIST_TOTAL" comment="TABLE;AFP;TYPE=TOTAL" localSheetId="0">'1 - Information'!$C$20:$F$23</definedName>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="188">
   <si>
     <t>RepGen:TEXT;APPLICATION_NAME</t>
   </si>
@@ -587,6 +588,21 @@
   </si>
   <si>
     <t>RepGen:TABLE;RULES_LIST_STATISTICS_RATIO;METRICS=CISQ-Security,COMPLIANCE=true</t>
+  </si>
+  <si>
+    <t>3.8.	Evolution of sub-standards for a quality standard</t>
+  </si>
+  <si>
+    <t>* Block Name = QUALITY_STANDARDS_EVOLUTION</t>
+  </si>
+  <si>
+    <t>* STD= Name of the parent quality standard you want the details, for example, CWE-2011-Top25 will list total, added and removed violations for standards CWE-22, CWE-78, CWE-79, CWE-89, CWE-134, CWE-327, CWE-434 and CWE-798.</t>
+  </si>
+  <si>
+    <t>To use this component, the Quality Standards Mapping extension should be installed on the central where the application resides, with minimum version 20181030</t>
+  </si>
+  <si>
+    <t>RepGen:TABLE;QUALITY_STANDARDS_EVOLUTION;STD=CWE-2011-Top25</t>
   </si>
 </sst>
 </file>
@@ -1368,6 +1384,64 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92753F2C-AEBD-49B1-A0DF-FB40FC05FDC6}">
+  <dimension ref="B1:B9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="121.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B1" s="21" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2" s="20" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B3" s="20" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B4" s="27"/>
+    </row>
+    <row r="5" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B5" s="27" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B6" s="27" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B7" s="27"/>
+    </row>
+    <row r="8" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B8" s="26"/>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>187</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -18935,7 +19009,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{976C8EF6-9462-404B-9CE3-9B69F0A9930C}">
   <dimension ref="B1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>

--- a/CastReporting.Reporting/TemplatesFiles/3- Excel-components-library.xlsx
+++ b/CastReporting.Reporting/TemplatesFiles/3- Excel-components-library.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\ReportGenerator\CastReporting.Reporting\TemplatesFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3731CF7-8571-42AA-84EA-3F82230AC999}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D92EF52-8572-4A18-A858-B70FA80040C3}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="5280" windowHeight="7995" firstSheet="3" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="5280" windowHeight="7995" tabRatio="701" firstSheet="5" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1 - Information" sheetId="6" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <sheet name="3 - Critical Violations List" sheetId="14" r:id="rId8"/>
     <sheet name="3 - List of violations statist " sheetId="15" r:id="rId9"/>
     <sheet name="3 - Evolution of standards" sheetId="16" r:id="rId10"/>
+    <sheet name="3 - Top Components" sheetId="18" r:id="rId11"/>
   </sheets>
   <definedNames>
     <definedName name="AFP_LIST_TOTAL" comment="TABLE;AFP;TYPE=TOTAL" localSheetId="0">'1 - Information'!$C$20:$F$23</definedName>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="199">
   <si>
     <t>RepGen:TEXT;APPLICATION_NAME</t>
   </si>
@@ -603,6 +604,39 @@
   </si>
   <si>
     <t>RepGen:TABLE;QUALITY_STANDARDS_EVOLUTION;STD=CWE-2011-Top25</t>
+  </si>
+  <si>
+    <t>3.9.	Top components by properties</t>
+  </si>
+  <si>
+    <t>* Block Name = TOP_COMPONENTS_BY_PROPERTIES</t>
+  </si>
+  <si>
+    <t>PROP1 : name of first property, cyclomaticComplexity if not exists</t>
+  </si>
+  <si>
+    <t>PROP2 : name of second property, fanOut if not exists</t>
+  </si>
+  <si>
+    <t>ORDER1 : ASC or DESC for PROP1, DESC by default</t>
+  </si>
+  <si>
+    <t>ORDER2 : ASC or DESC for PROP2, DESC by default</t>
+  </si>
+  <si>
+    <t>COUNT: the number of lines to display, 50 by default (-1 or all is not allowed, it will take too much time and paper)</t>
+  </si>
+  <si>
+    <t>* Options :</t>
+  </si>
+  <si>
+    <t>For PROP1 and PROP2, the available values are : codeLines, commentedCodeLines, commentLines, coupling, fanIn, fanOut, cyclomaticComplexity, ratioCommentLinesCodeLines, halsteadProgramLength, halsteadProgramVocabulary, halsteadVolume, distinctOperators, distinctOperands, integrationComplexity, essentialComplexity</t>
+  </si>
+  <si>
+    <t>RepGen:TABLE;TOP_COMPONENTS_BY_PROPERTIES;PROP1=cyclomaticComplexity,PROP2=ratioCommentLinesCodeLines,ORDER1=desc,ORDER2=asc,COUNT=10</t>
+  </si>
+  <si>
+    <t>If PROP1 and/or PROP2 is not correctly set,list of available values is displayed</t>
   </si>
 </sst>
 </file>
@@ -1391,8 +1425,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92753F2C-AEBD-49B1-A0DF-FB40FC05FDC6}">
   <dimension ref="B1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1437,6 +1471,88 @@
     <row r="9" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>187</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A48014B-133C-4EB1-BCC8-C47F0FE2BA42}">
+  <dimension ref="B1:B15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="121.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B1" s="21" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2" s="20" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B3" s="20" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B4" s="20" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B5" s="27" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B6" s="27" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B7" s="27" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B8" s="27" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B9" s="26"/>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>197</v>
       </c>
     </row>
   </sheetData>

--- a/CastReporting.Reporting/TemplatesFiles/3- Excel-components-library.xlsx
+++ b/CastReporting.Reporting/TemplatesFiles/3- Excel-components-library.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\ReportGenerator\CastReporting.Reporting\TemplatesFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D92EF52-8572-4A18-A858-B70FA80040C3}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0004CEB-D33A-4408-8063-6BA27E383881}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="5280" windowHeight="7995" tabRatio="701" firstSheet="5" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="5280" windowHeight="7995" tabRatio="701" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1 - Information" sheetId="6" r:id="rId1"/>
@@ -24,6 +24,7 @@
     <sheet name="3 - List of violations statist " sheetId="15" r:id="rId9"/>
     <sheet name="3 - Evolution of standards" sheetId="16" r:id="rId10"/>
     <sheet name="3 - Top Components" sheetId="18" r:id="rId11"/>
+    <sheet name="3 - Rules with largest variatio" sheetId="19" r:id="rId12"/>
   </sheets>
   <definedNames>
     <definedName name="AFP_LIST_TOTAL" comment="TABLE;AFP;TYPE=TOTAL" localSheetId="0">'1 - Information'!$C$20:$F$23</definedName>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="206">
   <si>
     <t>RepGen:TEXT;APPLICATION_NAME</t>
   </si>
@@ -637,6 +638,27 @@
   </si>
   <si>
     <t>If PROP1 and/or PROP2 is not correctly set,list of available values is displayed</t>
+  </si>
+  <si>
+    <t>3.10.	List of rules with largest variation</t>
+  </si>
+  <si>
+    <t>* Block Name = RULES_LIST_LARGEST_VARIATION</t>
+  </si>
+  <si>
+    <t>BCID : name of the BCID to get the rule’s compounded weight</t>
+  </si>
+  <si>
+    <t>VARIATION : increase or decrease (decrease by default)</t>
+  </si>
+  <si>
+    <t>DATA : number or percent (number by default)</t>
+  </si>
+  <si>
+    <t>COUNT: the number of lines to display, 50 by default (-1 for all rules)</t>
+  </si>
+  <si>
+    <t>RepGen:TABLE;RULES_LIST_LARGEST_VARIATION;BCID=60011,VARIATION=decrease,DATA=number,COUNT=50</t>
   </si>
 </sst>
 </file>
@@ -1285,7 +1307,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:O23"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
@@ -1483,7 +1505,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A48014B-133C-4EB1-BCC8-C47F0FE2BA42}">
   <dimension ref="B1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -1553,6 +1575,69 @@
     <row r="15" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>197</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{321A33B9-4108-40C7-AB52-19B5A9656C7B}">
+  <dimension ref="B1:B10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="17.42578125" customWidth="1"/>
+    <col min="11" max="12" width="9.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B1" s="21" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2" s="20" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B3" s="20" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B4" s="20" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B5" s="27" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B6" s="27" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B7" s="27" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B8" s="26"/>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>205</v>
       </c>
     </row>
   </sheetData>

--- a/CastReporting.Reporting/TemplatesFiles/3- Excel-components-library.xlsx
+++ b/CastReporting.Reporting/TemplatesFiles/3- Excel-components-library.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21029"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\ReportGenerator\CastReporting.Reporting\TemplatesFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0004CEB-D33A-4408-8063-6BA27E383881}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C09B9FB-F22C-446C-AAFE-6282293E958F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="5280" windowHeight="7995" tabRatio="701" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="5280" windowHeight="7995" tabRatio="701" firstSheet="6" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1 - Information" sheetId="6" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="207">
   <si>
     <t>RepGen:TEXT;APPLICATION_NAME</t>
   </si>
@@ -589,9 +589,6 @@
     <t>When you select the metric id for a BC or TC, all the QRs belonging to this BC or TC is added for displaying violations</t>
   </si>
   <si>
-    <t>RepGen:TABLE;RULES_LIST_STATISTICS_RATIO;METRICS=CISQ-Security,COMPLIANCE=true</t>
-  </si>
-  <si>
     <t>3.8.	Evolution of sub-standards for a quality standard</t>
   </si>
   <si>
@@ -659,6 +656,12 @@
   </si>
   <si>
     <t>RepGen:TABLE;RULES_LIST_LARGEST_VARIATION;BCID=60011,VARIATION=decrease,DATA=number,COUNT=50</t>
+  </si>
+  <si>
+    <t>*  LBL=violations or vulnerabilities (vulnerabilities if not set), this change the headers from Vulnerabilities to Violations</t>
+  </si>
+  <si>
+    <t>RepGen:TABLE;RULES_LIST_STATISTICS_RATIO;METRICS=CISQ-Security,COMPLIANCE=true,LBL=violations</t>
   </si>
 </sst>
 </file>
@@ -668,7 +671,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0&quot; LoC&quot;"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -788,6 +791,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Corbel"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -852,7 +861,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -911,6 +920,9 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
@@ -1307,7 +1319,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:O23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="C1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
@@ -1332,8 +1344,8 @@
     <row r="1" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D1" s="5"/>
       <c r="E1" s="6"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
     </row>
     <row r="2" spans="2:15" ht="23.25" x14ac:dyDescent="0.25">
       <c r="B2" s="7"/>
@@ -1344,16 +1356,16 @@
       <c r="G2" s="15"/>
     </row>
     <row r="3" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
       <c r="D3" s="3"/>
       <c r="E3" s="9"/>
       <c r="F3" s="1"/>
       <c r="G3" s="3"/>
     </row>
     <row r="4" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
       <c r="D4" s="3"/>
       <c r="E4" s="9"/>
       <c r="F4" s="1"/>
@@ -1401,26 +1413,26 @@
       </c>
     </row>
     <row r="20" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C20" s="32"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="33"/>
       <c r="F20" s="11"/>
     </row>
     <row r="21" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C21" s="28"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="29"/>
       <c r="F21" s="12"/>
-      <c r="G21" s="30"/>
-      <c r="H21" s="30"/>
+      <c r="G21" s="31"/>
+      <c r="H21" s="31"/>
     </row>
     <row r="22" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C22" s="28"/>
-      <c r="D22" s="28"/>
-      <c r="E22" s="28"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="29"/>
       <c r="F22" s="12"/>
-      <c r="G22" s="30"/>
-      <c r="H22" s="30"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="31"/>
     </row>
     <row r="23" spans="3:8" x14ac:dyDescent="0.25">
       <c r="E23" s="13"/>
@@ -1445,10 +1457,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92753F2C-AEBD-49B1-A0DF-FB40FC05FDC6}">
-  <dimension ref="B1:B9"/>
+  <dimension ref="B1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1458,41 +1470,46 @@
   <sheetData>
     <row r="1" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B1" s="21" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" s="20" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" s="20" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="4" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B4" s="27"/>
+      <c r="B4" s="27" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="5" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="27" t="s">
-        <v>179</v>
-      </c>
+      <c r="B5" s="27"/>
     </row>
     <row r="6" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="27" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B7" s="27" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B8" s="27"/>
+    </row>
+    <row r="9" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B9" s="26"/>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
         <v>186</v>
-      </c>
-    </row>
-    <row r="7" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="27"/>
-    </row>
-    <row r="8" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="26"/>
-    </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>187</v>
       </c>
     </row>
   </sheetData>
@@ -1516,42 +1533,42 @@
   <sheetData>
     <row r="1" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B1" s="21" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" s="20" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" s="20" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B4" s="20" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="27" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="6" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="27" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="7" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="27" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="8" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="27" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="9" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -1559,12 +1576,12 @@
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="13" spans="2:2" x14ac:dyDescent="0.25">
@@ -1574,7 +1591,7 @@
     </row>
     <row r="15" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -1599,37 +1616,37 @@
   <sheetData>
     <row r="1" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B1" s="21" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" s="20" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" s="20" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B4" s="20" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="27" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="6" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="27" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="7" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="27" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="8" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -1637,7 +1654,7 @@
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -19208,10 +19225,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{976C8EF6-9462-404B-9CE3-9B69F0A9930C}">
-  <dimension ref="B1:B12"/>
+  <dimension ref="B1:C13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19219,60 +19236,66 @@
     <col min="2" max="2" width="121.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B1" s="21" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B2" s="20" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" s="20" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="4" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B4" s="27" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="5" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="27" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="6" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="27" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="7" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="27"/>
-    </row>
-    <row r="8" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="27" t="s">
+    <row r="7" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B7" s="27" t="s">
+        <v>205</v>
+      </c>
+      <c r="C7" s="28"/>
+    </row>
+    <row r="8" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B8" s="27"/>
+    </row>
+    <row r="9" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B9" s="27" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="9" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="27" t="s">
+    <row r="10" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B10" s="27" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="10" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="27" t="s">
+    <row r="11" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B11" s="27" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="11" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B11" s="26"/>
-    </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>182</v>
+    <row r="12" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B12" s="26"/>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>206</v>
       </c>
     </row>
   </sheetData>

--- a/CastReporting.Reporting/TemplatesFiles/3- Excel-components-library.xlsx
+++ b/CastReporting.Reporting/TemplatesFiles/3- Excel-components-library.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\ReportGenerator\CastReporting.Reporting\TemplatesFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C09B9FB-F22C-446C-AAFE-6282293E958F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66175D33-6E5D-4C1A-8FBD-1E15426046AD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="5280" windowHeight="7995" tabRatio="701" firstSheet="6" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="5280" windowHeight="7995" tabRatio="701" firstSheet="7" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1 - Information" sheetId="6" r:id="rId1"/>
@@ -25,6 +25,7 @@
     <sheet name="3 - Evolution of standards" sheetId="16" r:id="rId10"/>
     <sheet name="3 - Top Components" sheetId="18" r:id="rId11"/>
     <sheet name="3 - Rules with largest variatio" sheetId="19" r:id="rId12"/>
+    <sheet name="3 - Removed violations" sheetId="20" r:id="rId13"/>
   </sheets>
   <definedNames>
     <definedName name="AFP_LIST_TOTAL" comment="TABLE;AFP;TYPE=TOTAL" localSheetId="0">'1 - Information'!$C$20:$F$23</definedName>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="211">
   <si>
     <t>RepGen:TEXT;APPLICATION_NAME</t>
   </si>
@@ -662,6 +663,18 @@
   </si>
   <si>
     <t>RepGen:TABLE;RULES_LIST_STATISTICS_RATIO;METRICS=CISQ-Security,COMPLIANCE=true,LBL=violations</t>
+  </si>
+  <si>
+    <t>3.11.	Removed violations by Business Criterion</t>
+  </si>
+  <si>
+    <t>* Block Name = REMOVED_VIOLATIONS_LIST</t>
+  </si>
+  <si>
+    <t>BCID : name of the BCID to get the rule’s compounded weight and to filter results (60017 by default)</t>
+  </si>
+  <si>
+    <t>RepGen:TABLE;REMOVED_VIOLATIONS_LIST;BCID=60017,COUNT=50</t>
   </si>
 </sst>
 </file>
@@ -1656,6 +1669,62 @@
       <c r="B10" t="s">
         <v>204</v>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9C53E83-8DB2-4C9D-B684-50883B392432}">
+  <dimension ref="B1:B8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="17.42578125" customWidth="1"/>
+    <col min="11" max="12" width="9.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B1" s="21" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2" s="20" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B3" s="20" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B4" s="20" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B5" s="27" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B6" s="27"/>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B8" s="26"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19227,7 +19296,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{976C8EF6-9462-404B-9CE3-9B69F0A9930C}">
   <dimension ref="B1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>

--- a/CastReporting.Reporting/TemplatesFiles/3- Excel-components-library.xlsx
+++ b/CastReporting.Reporting/TemplatesFiles/3- Excel-components-library.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21231"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\ReportGenerator\CastReporting.Reporting\TemplatesFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66175D33-6E5D-4C1A-8FBD-1E15426046AD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D105629A-EADB-4AA7-9343-49F0A00D86BE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="5280" windowHeight="7995" tabRatio="701" firstSheet="7" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="701" firstSheet="8" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1 - Information" sheetId="6" r:id="rId1"/>
@@ -26,6 +26,7 @@
     <sheet name="3 - Top Components" sheetId="18" r:id="rId11"/>
     <sheet name="3 - Rules with largest variatio" sheetId="19" r:id="rId12"/>
     <sheet name="3 - Removed violations" sheetId="20" r:id="rId13"/>
+    <sheet name="3 - AEFP list" sheetId="22" r:id="rId14"/>
   </sheets>
   <definedNames>
     <definedName name="AFP_LIST_TOTAL" comment="TABLE;AFP;TYPE=TOTAL" localSheetId="0">'1 - Information'!$C$20:$F$23</definedName>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="217">
   <si>
     <t>RepGen:TEXT;APPLICATION_NAME</t>
   </si>
@@ -675,6 +676,24 @@
   </si>
   <si>
     <t>RepGen:TABLE;REMOVED_VIOLATIONS_LIST;BCID=60017,COUNT=50</t>
+  </si>
+  <si>
+    <t>3.12.	List of AEFP</t>
+  </si>
+  <si>
+    <t>* Block Name = AEFP_LIST</t>
+  </si>
+  <si>
+    <t>TYPE : type of the function to display, DF for data function, TF for transactions, by default both are listed</t>
+  </si>
+  <si>
+    <t>STATUS : status of the function to display, ADDED, MODIFIED or DELETED, all statuses by default</t>
+  </si>
+  <si>
+    <t>COUNT: the number of lines to display, 10 by default (-1 for all rules)</t>
+  </si>
+  <si>
+    <t>RepGen:TABLE;AEFP_LIST;COUNT=-1</t>
   </si>
 </sst>
 </file>
@@ -684,7 +703,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0&quot; LoC&quot;"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -810,6 +829,12 @@
       <name val="Corbel"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Corbel"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -874,7 +899,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -950,6 +975,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1680,7 +1708,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9C53E83-8DB2-4C9D-B684-50883B392432}">
   <dimension ref="B1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
@@ -1725,6 +1753,72 @@
     </row>
     <row r="8" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="26"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6911279-FAB1-4631-AA51-7D78BAFCA198}">
+  <dimension ref="B1:B10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="17.42578125" customWidth="1"/>
+    <col min="11" max="12" width="9.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B1" s="21" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2" s="20" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B3" s="20" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B4" s="20" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B5" s="20" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B6" s="27" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B7" s="34" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B8" s="27"/>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B10" s="26"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/CastReporting.Reporting/TemplatesFiles/3- Excel-components-library.xlsx
+++ b/CastReporting.Reporting/TemplatesFiles/3- Excel-components-library.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\ReportGenerator\CastReporting.Reporting\TemplatesFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0362390B-8BB3-4089-A80E-226EA0E48FB3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48F598EA-3F6F-4115-B76B-AC4CB71E0447}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="701" firstSheet="8" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2295" yWindow="2295" windowWidth="28800" windowHeight="15435" tabRatio="701" firstSheet="9" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1 - Information" sheetId="6" r:id="rId1"/>
@@ -28,6 +28,7 @@
     <sheet name="3 - Removed violations" sheetId="20" r:id="rId13"/>
     <sheet name="3 - components by status list" sheetId="22" r:id="rId14"/>
     <sheet name="3 - AEFP list" sheetId="23" r:id="rId15"/>
+    <sheet name="3 - AETP list" sheetId="24" r:id="rId16"/>
   </sheets>
   <definedNames>
     <definedName name="AFP_LIST_TOTAL" comment="TABLE;AFP;TYPE=TOTAL" localSheetId="0">'1 - Information'!$C$20:$F$23</definedName>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="234">
   <si>
     <t>RepGen:TEXT;APPLICATION_NAME</t>
   </si>
@@ -884,6 +885,15 @@
   </si>
   <si>
     <t>RepGen:TABLE;DELTA_COMPONENTS_LIST_BY_STATUS;STATUS=deleted,COUNT=-1</t>
+  </si>
+  <si>
+    <t>3.14.	List of AETP</t>
+  </si>
+  <si>
+    <t>* Block Name = AETP_LIST</t>
+  </si>
+  <si>
+    <t>RepGen:TABLE;AETP_LIST;COUNT=-1</t>
   </si>
 </sst>
 </file>
@@ -1953,7 +1963,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6911279-FAB1-4631-AA51-7D78BAFCA198}">
   <dimension ref="B1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
@@ -2106,6 +2116,62 @@
     </row>
     <row r="10" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="22"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{822C81FE-2BA1-4A3C-ADB8-F42B4B1305BA}">
+  <dimension ref="B1:B8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="17.42578125" customWidth="1"/>
+    <col min="11" max="12" width="9.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B1" s="19" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2" s="18" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B3" s="18" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B4" s="23" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B5" s="25" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B6" s="23"/>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B8" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/CastReporting.Reporting/TemplatesFiles/3- Excel-components-library.xlsx
+++ b/CastReporting.Reporting/TemplatesFiles/3- Excel-components-library.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21629"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\ReportGenerator\CastReporting.Reporting\TemplatesFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\dev\ReportGenerator\CastReporting.Reporting\TemplatesFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48F598EA-3F6F-4115-B76B-AC4CB71E0447}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D5C7FC2-4A79-4683-9486-884760C4552F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2295" yWindow="2295" windowWidth="28800" windowHeight="15435" tabRatio="701" firstSheet="9" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11385" tabRatio="701" firstSheet="9" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1 - Information" sheetId="6" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="236">
   <si>
     <t>RepGen:TEXT;APPLICATION_NAME</t>
   </si>
@@ -675,9 +675,6 @@
   </si>
   <si>
     <t>BCID : name of the BCID to get the rule’s compounded weight and to filter results (60017 by default)</t>
-  </si>
-  <si>
-    <t>RepGen:TABLE;REMOVED_VIOLATIONS_LIST;BCID=60017,COUNT=50</t>
   </si>
   <si>
     <t>* Block Name = AEFP_LIST</t>
@@ -895,6 +892,27 @@
   <si>
     <t>RepGen:TABLE;AETP_LIST;COUNT=-1</t>
   </si>
+  <si>
+    <t>UPDATED</t>
+  </si>
+  <si>
+    <r>
+      <t>CRITICITY =</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> c for only critical violations, nc for only non critical violations, all for critical and non critical violations (all by default if not configured)</t>
+    </r>
+  </si>
+  <si>
+    <t>RepGen:TABLE;REMOVED_VIOLATIONS_LIST;BCID=60017,COUNT=50,CRITICITY=all</t>
+  </si>
 </sst>
 </file>
 
@@ -903,7 +921,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0&quot; LoC&quot;"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1042,6 +1060,21 @@
       <name val="Corbel"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -1106,7 +1139,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1180,6 +1213,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Accent4" xfId="3" builtinId="41"/>
@@ -1905,10 +1940,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9C53E83-8DB2-4C9D-B684-50883B392432}">
-  <dimension ref="B1:B8"/>
+  <dimension ref="B1:I9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1917,41 +1952,49 @@
     <col min="11" max="12" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B1" s="19" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="I1" s="31" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B2" s="18" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="18" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" s="18" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="5" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="23" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="6" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="23"/>
-    </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="8" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="22"/>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="32" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B7" s="23"/>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B9" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1975,12 +2018,12 @@
   <sheetData>
     <row r="1" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B1" s="19" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" s="18" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.25">
@@ -1990,37 +2033,37 @@
     </row>
     <row r="4" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B4" s="20" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B5" s="24" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="6" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="20" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="7" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="8" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="20" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="9" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B9" s="20" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="10" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="20" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.25">
@@ -2028,27 +2071,27 @@
     </row>
     <row r="12" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B12" s="25" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="13" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B13" s="25" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="14" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B14" s="25" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="15" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B15" s="25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>
@@ -2073,12 +2116,12 @@
   <sheetData>
     <row r="1" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B1" s="19" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" s="18" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.25">
@@ -2088,17 +2131,17 @@
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B4" s="18" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B5" s="18" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="6" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="23" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.25">
@@ -2111,7 +2154,7 @@
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="10" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -2127,7 +2170,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{822C81FE-2BA1-4A3C-ADB8-F42B4B1305BA}">
   <dimension ref="B1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
@@ -2139,12 +2182,12 @@
   <sheetData>
     <row r="1" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B1" s="19" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" s="18" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.25">
@@ -2154,7 +2197,7 @@
     </row>
     <row r="4" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B4" s="23" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.25">
@@ -2167,7 +2210,7 @@
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="8" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">

--- a/CastReporting.Reporting/TemplatesFiles/3- Excel-components-library.xlsx
+++ b/CastReporting.Reporting/TemplatesFiles/3- Excel-components-library.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\dev\ReportGenerator\CastReporting.Reporting\TemplatesFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\ReportGenerator\dev\ReportGenerator\CastReporting.Reporting\TemplatesFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D5C7FC2-4A79-4683-9486-884760C4552F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{539DFB12-646F-4FF0-8B90-B13C57132DF3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11385" tabRatio="701" firstSheet="9" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11385" tabRatio="701" firstSheet="9" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1 - Information" sheetId="6" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="240">
   <si>
     <t>RepGen:TEXT;APPLICATION_NAME</t>
   </si>
@@ -591,9 +591,6 @@
   </si>
   <si>
     <t>When you select the metric id for a BC or TC, all the QRs belonging to this BC or TC is added for displaying violations</t>
-  </si>
-  <si>
-    <t>3.8.	Evolution of sub-standards for a quality standard</t>
   </si>
   <si>
     <t>* Block Name = QUALITY_STANDARDS_EVOLUTION</t>
@@ -913,6 +910,79 @@
   <si>
     <t>RepGen:TABLE;REMOVED_VIOLATIONS_LIST;BCID=60017,COUNT=50,CRITICITY=all</t>
   </si>
+  <si>
+    <t>3.8.	Evolution of category or tag for a quality standard</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>* MORE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>=true : add this one if you have specified a category in STD and want the evolution of the tags associated to this category (not specified by default)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>* MORE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>=true : add this one if you have specified a category in STD and want the evolution of the tags associated to this category (not specified by default)</t>
+    </r>
+  </si>
+  <si>
+    <t>* LBL=violations or vulnerabilities (vulnerabilities if not set), this change the headers from Vulnerabilities to Violations</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>* MORE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>=true : add this one if you have specified a category in STD and want the evolution of the tags associated to this category (not specified by default)</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -921,7 +991,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0&quot; LoC&quot;"/>
   </numFmts>
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1075,6 +1145,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -1139,7 +1230,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1198,6 +1289,8 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
@@ -1213,8 +1306,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Accent4" xfId="3" builtinId="41"/>
@@ -1619,8 +1711,8 @@
     <row r="1" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D1" s="4"/>
       <c r="E1" s="5"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
     </row>
     <row r="2" spans="2:15" ht="23.25" x14ac:dyDescent="0.25">
       <c r="B2" s="6"/>
@@ -1631,16 +1723,16 @@
       <c r="G2" s="14"/>
     </row>
     <row r="3" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
       <c r="D3" s="3"/>
       <c r="E3" s="8"/>
       <c r="F3" s="1"/>
       <c r="G3" s="3"/>
     </row>
     <row r="4" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
       <c r="D4" s="3"/>
       <c r="E4" s="8"/>
       <c r="F4" s="1"/>
@@ -1688,26 +1780,26 @@
       </c>
     </row>
     <row r="20" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C20" s="30"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="30"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
       <c r="F20" s="10"/>
     </row>
     <row r="21" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
       <c r="F21" s="11"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="28"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="30"/>
     </row>
     <row r="22" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C22" s="26"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="26"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="28"/>
       <c r="F22" s="11"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="28"/>
+      <c r="G22" s="30"/>
+      <c r="H22" s="30"/>
     </row>
     <row r="23" spans="3:8" x14ac:dyDescent="0.25">
       <c r="E23" s="12"/>
@@ -1732,10 +1824,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92753F2C-AEBD-49B1-A0DF-FB40FC05FDC6}">
-  <dimension ref="B1:B10"/>
+  <dimension ref="B1:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1743,48 +1835,56 @@
     <col min="2" max="2" width="121.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B1" s="19" t="s">
+        <v>235</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="2" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B2" s="33" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B2" s="18" t="s">
+    <row r="3" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B3" s="33" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B3" s="18" t="s">
+    <row r="4" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B4" s="23" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B5" s="23" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B6" s="23"/>
+    </row>
+    <row r="7" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B7" s="23" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B8" s="23" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="4" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B4" s="23" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="23"/>
-    </row>
-    <row r="6" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="23" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="7" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="23" t="s">
+    <row r="9" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B9" s="23"/>
+    </row>
+    <row r="10" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B10" s="22"/>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
         <v>185</v>
-      </c>
-    </row>
-    <row r="8" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="23"/>
-    </row>
-    <row r="9" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="22"/>
-    </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -1808,42 +1908,42 @@
   <sheetData>
     <row r="1" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B1" s="19" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" s="18" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" s="18" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B4" s="18" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="5" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="23" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="6" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="23" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="7" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="23" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="8" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="23" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="9" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -1851,12 +1951,12 @@
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="13" spans="2:2" x14ac:dyDescent="0.25">
@@ -1866,7 +1966,7 @@
     </row>
     <row r="15" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -1891,37 +1991,37 @@
   <sheetData>
     <row r="1" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B1" s="19" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" s="18" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" s="18" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B4" s="18" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="5" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="23" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="6" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="23" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="7" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="23" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="8" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -1929,7 +2029,7 @@
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -1942,8 +2042,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9C53E83-8DB2-4C9D-B684-50883B392432}">
   <dimension ref="B1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1954,35 +2054,35 @@
   <sheetData>
     <row r="1" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B1" s="19" t="s">
-        <v>207</v>
-      </c>
-      <c r="I1" s="31" t="s">
-        <v>233</v>
+        <v>206</v>
+      </c>
+      <c r="I1" s="26" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B2" s="18" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="18" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" s="18" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="5" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="23" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="32" t="s">
-        <v>234</v>
+      <c r="B6" s="27" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="7" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -1990,7 +2090,7 @@
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="9" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -2018,52 +2118,52 @@
   <sheetData>
     <row r="1" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B1" s="19" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" s="18" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" s="18" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="4" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B4" s="20" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B5" s="24" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="6" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="20" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="7" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="20" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="8" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="9" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B9" s="20" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="10" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="20" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.25">
@@ -2071,27 +2171,27 @@
     </row>
     <row r="12" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B12" s="25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="13" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B13" s="25" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="14" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B14" s="25" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="15" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B15" s="25" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -2116,32 +2216,32 @@
   <sheetData>
     <row r="1" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B1" s="19" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" s="18" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" s="18" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B4" s="18" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B5" s="18" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="6" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="23" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.25">
@@ -2154,7 +2254,7 @@
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="10" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -2182,22 +2282,22 @@
   <sheetData>
     <row r="1" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B1" s="19" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" s="18" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" s="18" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="4" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B4" s="23" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.25">
@@ -2210,7 +2310,7 @@
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="8" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -19824,7 +19924,7 @@
     </row>
     <row r="7" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="23" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C7" s="24"/>
     </row>
@@ -19851,7 +19951,7 @@
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
   </sheetData>

--- a/CastReporting.Reporting/TemplatesFiles/3- Excel-components-library.xlsx
+++ b/CastReporting.Reporting/TemplatesFiles/3- Excel-components-library.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\ReportGenerator\dev\ReportGenerator\CastReporting.Reporting\TemplatesFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{539DFB12-646F-4FF0-8B90-B13C57132DF3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFBCEFA2-66DB-4C0B-B10C-885CA1E09283}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11385" tabRatio="701" firstSheet="9" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="701" firstSheet="11" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1 - Information" sheetId="6" r:id="rId1"/>
@@ -29,6 +29,7 @@
     <sheet name="3 - components by status list" sheetId="22" r:id="rId14"/>
     <sheet name="3 - AEFP list" sheetId="23" r:id="rId15"/>
     <sheet name="3 - AETP list" sheetId="24" r:id="rId16"/>
+    <sheet name="3-CastRulesEvoByQualityCategory" sheetId="25" r:id="rId17"/>
   </sheets>
   <definedNames>
     <definedName name="AFP_LIST_TOTAL" comment="TABLE;AFP;TYPE=TOTAL" localSheetId="0">'1 - Information'!$C$20:$F$23</definedName>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="244">
   <si>
     <t>RepGen:TEXT;APPLICATION_NAME</t>
   </si>
@@ -914,50 +915,6 @@
     <t>3.8.	Evolution of category or tag for a quality standard</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>* MORE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>=true : add this one if you have specified a category in STD and want the evolution of the tags associated to this category (not specified by default)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>* MORE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>=true : add this one if you have specified a category in STD and want the evolution of the tags associated to this category (not specified by default)</t>
-    </r>
-  </si>
-  <si>
     <t>* LBL=violations or vulnerabilities (vulnerabilities if not set), this change the headers from Vulnerabilities to Violations</t>
   </si>
   <si>
@@ -983,6 +940,24 @@
       <t>=true : add this one if you have specified a category in STD and want the evolution of the tags associated to this category (not specified by default)</t>
     </r>
   </si>
+  <si>
+    <t>NEW</t>
+  </si>
+  <si>
+    <t>* Block Name = QUALITY_TAGS_RULES_EVOLUTION</t>
+  </si>
+  <si>
+    <t>* STD= Name of the quality standard category for which you want the details per tag, for example, STIG-V4R8-CAT1 will list total, added and removed violations for cast rules associated to all tags belonged to category STIG-V4R8-CAT1</t>
+  </si>
+  <si>
+    <t>To use this component, the Quality Standards Mapping extension should be installed on the central where the application resides, with minimum version 20190624</t>
+  </si>
+  <si>
+    <t>RepGen:TABLE;QUALITY_TAGS_RULES_EVOLUTION;STD=STIG-V4R8-CAT1</t>
+  </si>
+  <si>
+    <t>3.15.	Evolution of CAST rules associated to a quality standard category</t>
+  </si>
 </sst>
 </file>
 
@@ -991,7 +966,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0&quot; LoC&quot;"/>
   </numFmts>
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1166,6 +1141,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -1230,7 +1213,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1291,6 +1274,7 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
@@ -1306,7 +1290,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Accent4" xfId="3" builtinId="41"/>
@@ -1711,8 +1695,8 @@
     <row r="1" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D1" s="4"/>
       <c r="E1" s="5"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
     </row>
     <row r="2" spans="2:15" ht="23.25" x14ac:dyDescent="0.25">
       <c r="B2" s="6"/>
@@ -1723,16 +1707,16 @@
       <c r="G2" s="14"/>
     </row>
     <row r="3" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
       <c r="D3" s="3"/>
       <c r="E3" s="8"/>
       <c r="F3" s="1"/>
       <c r="G3" s="3"/>
     </row>
     <row r="4" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
       <c r="D4" s="3"/>
       <c r="E4" s="8"/>
       <c r="F4" s="1"/>
@@ -1780,26 +1764,26 @@
       </c>
     </row>
     <row r="20" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C20" s="32"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="33"/>
       <c r="F20" s="10"/>
     </row>
     <row r="21" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C21" s="28"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="29"/>
       <c r="F21" s="11"/>
-      <c r="G21" s="30"/>
-      <c r="H21" s="30"/>
+      <c r="G21" s="31"/>
+      <c r="H21" s="31"/>
     </row>
     <row r="22" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C22" s="28"/>
-      <c r="D22" s="28"/>
-      <c r="E22" s="28"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="29"/>
       <c r="F22" s="11"/>
-      <c r="G22" s="30"/>
-      <c r="H22" s="30"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="31"/>
     </row>
     <row r="23" spans="3:8" x14ac:dyDescent="0.25">
       <c r="E23" s="12"/>
@@ -1826,8 +1810,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92753F2C-AEBD-49B1-A0DF-FB40FC05FDC6}">
   <dimension ref="B1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1844,23 +1828,23 @@
       </c>
     </row>
     <row r="2" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="28" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="3" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="28" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="4" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B4" s="23" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="5" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="23" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="6" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -2315,6 +2299,72 @@
     </row>
     <row r="8" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="22"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88ECF1C8-5AB3-4063-B1EA-9D9688F82C45}">
+  <dimension ref="B1:C10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="90.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B1" s="19" t="s">
+        <v>243</v>
+      </c>
+      <c r="C1" s="34" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="2" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B2" s="28" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B3" s="28" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B4" s="23" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B5" s="23"/>
+    </row>
+    <row r="6" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B6" s="23" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B7" s="23" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B8" s="23"/>
+    </row>
+    <row r="9" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B9" s="22"/>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>242</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/CastReporting.Reporting/TemplatesFiles/3- Excel-components-library.xlsx
+++ b/CastReporting.Reporting/TemplatesFiles/3- Excel-components-library.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\ReportGenerator\dev\ReportGenerator\CastReporting.Reporting\TemplatesFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFBCEFA2-66DB-4C0B-B10C-885CA1E09283}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E70D8F0-14A2-40FE-AC72-786AFF4B77EE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="701" firstSheet="11" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="701" firstSheet="9" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1 - Information" sheetId="6" r:id="rId1"/>
@@ -30,6 +30,7 @@
     <sheet name="3 - AEFP list" sheetId="23" r:id="rId15"/>
     <sheet name="3 - AETP list" sheetId="24" r:id="rId16"/>
     <sheet name="3-CastRulesEvoByQualityCategory" sheetId="25" r:id="rId17"/>
+    <sheet name="3-ListTagsDocByCat" sheetId="26" r:id="rId18"/>
   </sheets>
   <definedNames>
     <definedName name="AFP_LIST_TOTAL" comment="TABLE;AFP;TYPE=TOTAL" localSheetId="0">'1 - Information'!$C$20:$F$23</definedName>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="247">
   <si>
     <t>RepGen:TEXT;APPLICATION_NAME</t>
   </si>
@@ -891,9 +892,6 @@
     <t>RepGen:TABLE;AETP_LIST;COUNT=-1</t>
   </si>
   <si>
-    <t>UPDATED</t>
-  </si>
-  <si>
     <r>
       <t>CRITICITY =</t>
     </r>
@@ -957,6 +955,18 @@
   </si>
   <si>
     <t>3.15.	Evolution of CAST rules associated to a quality standard category</t>
+  </si>
+  <si>
+    <t>* Block Name = LIST_TAGS_DOC_BYCAT</t>
+  </si>
+  <si>
+    <t>* CAT = Id of the standard quality category, for example, STIG-V4R8-CAT1, or a list separated by ‘|’</t>
+  </si>
+  <si>
+    <t>To use this component, the Quality Standards Mapping extension should be installed on the central where the application resides, with minimum version 20190909</t>
+  </si>
+  <si>
+    <t>RepGen:TABLE;LIST_TAGS_DOC_BYCAT;CAT=STIG-V4R8-CAT1</t>
   </si>
 </sst>
 </file>
@@ -1275,6 +1285,7 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
@@ -1290,7 +1301,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Accent4" xfId="3" builtinId="41"/>
@@ -1695,8 +1705,8 @@
     <row r="1" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D1" s="4"/>
       <c r="E1" s="5"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
     </row>
     <row r="2" spans="2:15" ht="23.25" x14ac:dyDescent="0.25">
       <c r="B2" s="6"/>
@@ -1707,16 +1717,16 @@
       <c r="G2" s="14"/>
     </row>
     <row r="3" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
       <c r="D3" s="3"/>
       <c r="E3" s="8"/>
       <c r="F3" s="1"/>
       <c r="G3" s="3"/>
     </row>
     <row r="4" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
       <c r="D4" s="3"/>
       <c r="E4" s="8"/>
       <c r="F4" s="1"/>
@@ -1764,26 +1774,26 @@
       </c>
     </row>
     <row r="20" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C20" s="33"/>
-      <c r="D20" s="33"/>
-      <c r="E20" s="33"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="34"/>
       <c r="F20" s="10"/>
     </row>
     <row r="21" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C21" s="29"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="29"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="30"/>
       <c r="F21" s="11"/>
-      <c r="G21" s="31"/>
-      <c r="H21" s="31"/>
+      <c r="G21" s="32"/>
+      <c r="H21" s="32"/>
     </row>
     <row r="22" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C22" s="29"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="29"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="30"/>
       <c r="F22" s="11"/>
-      <c r="G22" s="31"/>
-      <c r="H22" s="31"/>
+      <c r="G22" s="32"/>
+      <c r="H22" s="32"/>
     </row>
     <row r="23" spans="3:8" x14ac:dyDescent="0.25">
       <c r="E23" s="12"/>
@@ -1811,7 +1821,7 @@
   <dimension ref="B1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:D11"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1821,11 +1831,9 @@
   <sheetData>
     <row r="1" spans="2:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B1" s="19" t="s">
-        <v>235</v>
-      </c>
-      <c r="C1" s="26" t="s">
-        <v>232</v>
-      </c>
+        <v>234</v>
+      </c>
+      <c r="C1" s="26"/>
     </row>
     <row r="2" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="28" t="s">
@@ -1839,12 +1847,12 @@
     </row>
     <row r="4" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B4" s="23" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="5" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="23" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="6" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -2040,9 +2048,7 @@
       <c r="B1" s="19" t="s">
         <v>206</v>
       </c>
-      <c r="I1" s="26" t="s">
-        <v>232</v>
-      </c>
+      <c r="I1" s="26"/>
     </row>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B2" s="18" t="s">
@@ -2066,7 +2072,7 @@
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6" s="27" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="7" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -2074,7 +2080,7 @@
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="9" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -2310,8 +2316,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88ECF1C8-5AB3-4063-B1EA-9D9688F82C45}">
   <dimension ref="B1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2321,25 +2327,23 @@
   <sheetData>
     <row r="1" spans="2:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B1" s="19" t="s">
-        <v>243</v>
-      </c>
-      <c r="C1" s="34" t="s">
-        <v>238</v>
-      </c>
+        <v>242</v>
+      </c>
+      <c r="C1" s="29"/>
     </row>
     <row r="2" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="28" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="3" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B3" s="28" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="4" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B4" s="23" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="5" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -2352,7 +2356,7 @@
     </row>
     <row r="7" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="23" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="8" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -2363,12 +2367,76 @@
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F8A93F7-09DE-4CB9-9DC0-106F29CE8F69}">
+  <dimension ref="B1:C10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="90.28515625" customWidth="1"/>
+    <col min="3" max="3" width="109.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B1" s="19" t="s">
+        <v>242</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="2" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B2" s="28" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B3" s="28" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B4" s="23"/>
+    </row>
+    <row r="5" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B5" s="23"/>
+    </row>
+    <row r="6" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B6" s="23" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B7" s="23" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B8" s="23"/>
+    </row>
+    <row r="9" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B9" s="22"/>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>246</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 

--- a/CastReporting.Reporting/TemplatesFiles/3- Excel-components-library.xlsx
+++ b/CastReporting.Reporting/TemplatesFiles/3- Excel-components-library.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\ReportGenerator\dev\ReportGenerator\CastReporting.Reporting\TemplatesFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E70D8F0-14A2-40FE-AC72-786AFF4B77EE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30FCE157-BDB5-4046-9B71-9490A4D28ECE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="701" firstSheet="9" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="701" firstSheet="9" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1 - Information" sheetId="6" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="253">
   <si>
     <t>RepGen:TEXT;APPLICATION_NAME</t>
   </si>
@@ -632,9 +632,6 @@
   </si>
   <si>
     <t>For PROP1 and PROP2, the available values are : codeLines, commentedCodeLines, commentLines, coupling, fanIn, fanOut, cyclomaticComplexity, ratioCommentLinesCodeLines, halsteadProgramLength, halsteadProgramVocabulary, halsteadVolume, distinctOperators, distinctOperands, integrationComplexity, essentialComplexity</t>
-  </si>
-  <si>
-    <t>RepGen:TABLE;TOP_COMPONENTS_BY_PROPERTIES;PROP1=cyclomaticComplexity,PROP2=ratioCommentLinesCodeLines,ORDER1=desc,ORDER2=asc,COUNT=10</t>
   </si>
   <si>
     <t>If PROP1 and/or PROP2 is not correctly set,list of available values is displayed</t>
@@ -968,6 +965,27 @@
   <si>
     <t>RepGen:TABLE;LIST_TAGS_DOC_BYCAT;CAT=STIG-V4R8-CAT1</t>
   </si>
+  <si>
+    <t>LOWER1 : components should have prop1 value lower than this value</t>
+  </si>
+  <si>
+    <t>GREATER1 : components should have prop1 value greater than this value</t>
+  </si>
+  <si>
+    <t>LOWER2 : components should have prop2 value lower than this value</t>
+  </si>
+  <si>
+    <t>GREATER2 : components should have prop2 value greater than this value</t>
+  </si>
+  <si>
+    <t>UPDATED</t>
+  </si>
+  <si>
+    <t>When using LOWER and GREATER parameters, the ORDER parameter can be overridden to get the most accurate components corresponding to the request. As the filter can be done only after requesting data from the RestAPI, the list can be truncated. So the option NBSET define the number of objects returns from the rest api before the filtering and the limitation of display (COUNT), this option is set to 500 by default, to avoid too long server response time.</t>
+  </si>
+  <si>
+    <t>RepGen:TABLE;TOP_COMPONENTS_BY_PROPERTIES;PROP1=cyclomaticComplexity,PROP2=ratioCommentLinesCodeLines,ORDER1=desc,ORDER2=asc,LOWER2=0.10,COUNT=100,NBSET=10000</t>
+  </si>
 </sst>
 </file>
 
@@ -976,7 +994,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0&quot; LoC&quot;"/>
   </numFmts>
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1159,6 +1177,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -1223,7 +1249,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1286,6 +1312,7 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
@@ -1300,6 +1327,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1705,8 +1735,8 @@
     <row r="1" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D1" s="4"/>
       <c r="E1" s="5"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
     </row>
     <row r="2" spans="2:15" ht="23.25" x14ac:dyDescent="0.25">
       <c r="B2" s="6"/>
@@ -1717,16 +1747,16 @@
       <c r="G2" s="14"/>
     </row>
     <row r="3" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
       <c r="D3" s="3"/>
       <c r="E3" s="8"/>
       <c r="F3" s="1"/>
       <c r="G3" s="3"/>
     </row>
     <row r="4" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
       <c r="D4" s="3"/>
       <c r="E4" s="8"/>
       <c r="F4" s="1"/>
@@ -1774,26 +1804,26 @@
       </c>
     </row>
     <row r="20" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C20" s="34"/>
-      <c r="D20" s="34"/>
-      <c r="E20" s="34"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="35"/>
       <c r="F20" s="10"/>
     </row>
     <row r="21" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C21" s="30"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="30"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="31"/>
       <c r="F21" s="11"/>
-      <c r="G21" s="32"/>
-      <c r="H21" s="32"/>
+      <c r="G21" s="33"/>
+      <c r="H21" s="33"/>
     </row>
     <row r="22" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C22" s="30"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="30"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="31"/>
       <c r="F22" s="11"/>
-      <c r="G22" s="32"/>
-      <c r="H22" s="32"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="33"/>
     </row>
     <row r="23" spans="3:8" x14ac:dyDescent="0.25">
       <c r="E23" s="12"/>
@@ -1831,7 +1861,7 @@
   <sheetData>
     <row r="1" spans="2:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B1" s="19" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C1" s="26"/>
     </row>
@@ -1847,12 +1877,12 @@
     </row>
     <row r="4" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B4" s="23" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="5" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="23" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="6" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -1887,78 +1917,112 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A48014B-133C-4EB1-BCC8-C47F0FE2BA42}">
-  <dimension ref="B1:B15"/>
+  <dimension ref="B1:C20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="121.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:3" ht="21" x14ac:dyDescent="0.35">
       <c r="B1" s="19" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C1" s="30" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B2" s="18" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" s="18" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" s="18" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="5" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="23" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="6" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="23" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="7" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="23" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="8" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="23" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B9" s="23" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B10" s="23" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B11" s="23" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B12" s="23" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="9" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="22"/>
-    </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+    <row r="13" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B13" s="22"/>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B14" s="27" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="B15" s="36" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="13" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="15" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
+    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
         <v>195</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="36" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>252</v>
       </c>
     </row>
   </sheetData>
@@ -1983,12 +2047,12 @@
   <sheetData>
     <row r="1" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B1" s="19" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" s="18" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.25">
@@ -1998,22 +2062,22 @@
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B4" s="18" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="5" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="23" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="6" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="23" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="7" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="23" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="8" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -2021,7 +2085,7 @@
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -2046,13 +2110,13 @@
   <sheetData>
     <row r="1" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B1" s="19" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I1" s="26"/>
     </row>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B2" s="18" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
@@ -2062,17 +2126,17 @@
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" s="18" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="5" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="23" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6" s="27" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="7" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -2080,7 +2144,7 @@
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="9" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -2108,12 +2172,12 @@
   <sheetData>
     <row r="1" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B1" s="19" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" s="18" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.25">
@@ -2123,37 +2187,37 @@
     </row>
     <row r="4" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B4" s="20" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B5" s="24" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="6" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="20" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="7" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="20" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="8" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="20" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="9" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B9" s="20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="10" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="20" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.25">
@@ -2161,27 +2225,27 @@
     </row>
     <row r="12" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B12" s="25" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="13" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B13" s="25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="14" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B14" s="25" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="15" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B15" s="25" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
   </sheetData>
@@ -2206,12 +2270,12 @@
   <sheetData>
     <row r="1" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B1" s="19" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" s="18" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.25">
@@ -2221,17 +2285,17 @@
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B4" s="18" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B5" s="18" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="6" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="23" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.25">
@@ -2244,7 +2308,7 @@
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="10" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -2272,12 +2336,12 @@
   <sheetData>
     <row r="1" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B1" s="19" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" s="18" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.25">
@@ -2287,7 +2351,7 @@
     </row>
     <row r="4" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B4" s="23" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.25">
@@ -2300,7 +2364,7 @@
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="8" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -2327,23 +2391,23 @@
   <sheetData>
     <row r="1" spans="2:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B1" s="19" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C1" s="29"/>
     </row>
     <row r="2" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="28" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="3" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B3" s="28" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="4" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B4" s="23" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="5" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -2356,7 +2420,7 @@
     </row>
     <row r="7" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="23" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="8" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -2367,7 +2431,7 @@
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
   </sheetData>
@@ -2380,8 +2444,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F8A93F7-09DE-4CB9-9DC0-106F29CE8F69}">
   <dimension ref="B1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2390,22 +2454,22 @@
     <col min="3" max="3" width="109.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:3" ht="21" x14ac:dyDescent="0.35">
       <c r="B1" s="19" t="s">
-        <v>242</v>
-      </c>
-      <c r="C1" s="29" t="s">
-        <v>237</v>
+        <v>241</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="2" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="28" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="3" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B3" s="28" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="4" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -2421,7 +2485,7 @@
     </row>
     <row r="7" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="23" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="8" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -2432,7 +2496,7 @@
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
   </sheetData>
@@ -20042,7 +20106,7 @@
     </row>
     <row r="7" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="23" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C7" s="24"/>
     </row>
@@ -20069,7 +20133,7 @@
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>
